--- a/data/MDD.xlsx
+++ b/data/MDD.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGUK\Desktop\Engineering_EKB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B1DA25-731E-48D3-9F6A-90B1418CE6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73013A2-C70D-46EB-A517-BEA65DEF5745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="825" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="756">
   <si>
     <t>ID</t>
   </si>
@@ -2285,13 +2298,22 @@
   </si>
   <si>
     <t>B V43M</t>
+  </si>
+  <si>
+    <t>ddmut_prediction</t>
+  </si>
+  <si>
+    <t>Ture-DDM</t>
+  </si>
+  <si>
+    <t>AVERAGE(TRUE-DDM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2304,6 +2326,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2313,7 +2349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2336,16 +2372,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2648,18 +2697,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K313"/>
+  <dimension ref="A1:N313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2693,8 +2746,17 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2728,8 +2790,19 @@
       <c r="K2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>-0.03</v>
+      </c>
+      <c r="M2">
+        <f>(J2-L2)*2</f>
+        <v>-2.7370906708551699</v>
+      </c>
+      <c r="N2">
+        <f>SQRT(AVERAGE(M2:M313))</f>
+        <v>1.4293929512407031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2763,8 +2836,15 @@
       <c r="K3" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>-0.03</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">(J3-L3)*2</f>
+        <v>5.4680780584494793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2798,8 +2878,15 @@
       <c r="K4" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>2.6113558612220653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2833,8 +2920,15 @@
       <c r="K5" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>-3.6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>9.0723134198044129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2868,8 +2962,15 @@
       <c r="K6" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>-1.47</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.5503427096080005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2903,8 +3004,15 @@
       <c r="K7" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>-1.47</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1.7597293543956223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2938,8 +3046,15 @@
       <c r="K8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1.36</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-5.1021838972324378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2973,8 +3088,15 @@
       <c r="K9" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1.39</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>-2.763516483519878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3008,8 +3130,15 @@
       <c r="K10" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>-2.15</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>4.8050549451415927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3043,8 +3172,15 @@
       <c r="K11" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>-0.23</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>-0.26665882185550133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3078,8 +3214,15 @@
       <c r="K12" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>-0.27</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>-0.39070972046849761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3113,8 +3256,15 @@
       <c r="K13" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>-1.28</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>-2.7994216517407602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3148,8 +3298,15 @@
       <c r="K14" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0.7</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>-2.6578945522198243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3183,8 +3340,15 @@
       <c r="K15" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>-1.91</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.20774192984587181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3218,8 +3382,15 @@
       <c r="K16" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>1.25</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>-1.1343039779485342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3253,8 +3424,15 @@
       <c r="K17" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>-0.04</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>-0.37133302928646617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3288,8 +3466,15 @@
       <c r="K18" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>-0.04</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>-0.38487407372166899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3323,8 +3508,15 @@
       <c r="K19" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>-0.01</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>-2.7980125742334701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3358,8 +3550,15 @@
       <c r="K20" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>-3.18</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>5.5615384615572836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -3393,8 +3592,15 @@
       <c r="K21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>-0.2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0.71744142333807659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -3428,8 +3634,15 @@
       <c r="K22" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>2.16</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>-4.210603085561381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -3463,8 +3676,15 @@
       <c r="K23" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>-0.09</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.32266342267188497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -3498,8 +3718,15 @@
       <c r="K24" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1.2723076913275917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3533,8 +3760,15 @@
       <c r="K25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>-3.37</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>6.7804944619615881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3568,8 +3802,15 @@
       <c r="K26" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>-3.26</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>4.5162637362279732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3603,8 +3844,15 @@
       <c r="K27" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>0.59</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>-1.7094505495451644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3638,8 +3886,15 @@
       <c r="K28" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>-1.25</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0.31329670384417385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3673,8 +3928,15 @@
       <c r="K29" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>-2.36</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>4.7499999999977085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3708,8 +3970,15 @@
       <c r="K30" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>-2.16</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>6.3662443462403324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3743,8 +4012,15 @@
       <c r="K31" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>6.4665721993480645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -3778,8 +4054,15 @@
       <c r="K32" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>-1.44</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>5.4817347974802058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3813,8 +4096,15 @@
       <c r="K33" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>-0.68</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0.79395604392748254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -3848,8 +4138,15 @@
       <c r="K34" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>0.02</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>-2.2768131869402701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -3883,8 +4180,15 @@
       <c r="K35" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>-0.87</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>3.6592659164411243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -3918,8 +4222,15 @@
       <c r="K36" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>-0.87</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>3.2323427038970198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -3953,8 +4264,15 @@
       <c r="K37" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>-0.87</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>1.3682405738733088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -3988,8 +4306,15 @@
       <c r="K38" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>-0.73</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1.7428571427011208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -4023,8 +4348,15 @@
       <c r="K39" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>1.5061538472609997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4058,8 +4390,15 @@
       <c r="K40" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>-0.53</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>0.77211541471809619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4093,8 +4432,15 @@
       <c r="K41" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>-2.61</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>5.362747252417142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -4128,8 +4474,15 @@
       <c r="K42" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>-1.22</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>5.7909424549451218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -4163,8 +4516,15 @@
       <c r="K43" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>-0.26</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>5.7634138890527922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -4198,8 +4558,15 @@
       <c r="K44" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>-0.82</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>2.4813625348951773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -4233,8 +4600,15 @@
       <c r="K45" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>-0.15</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>0.86523042126845362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -4268,8 +4642,15 @@
       <c r="K46" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>1.27</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>-1.9643323861787034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -4303,8 +4684,15 @@
       <c r="K47" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>1.27</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>-1.2210917139828781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4338,8 +4726,15 @@
       <c r="K48" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>-1.54</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>6.6714498970857257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -4373,8 +4768,15 @@
       <c r="K49" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>0.01</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>-8.183629663227325E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -4408,8 +4810,15 @@
       <c r="K50" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>0.13</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>-0.13958700314545891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -4443,8 +4852,15 @@
       <c r="K51" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>-1.6316069211875057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -4478,8 +4894,15 @@
       <c r="K52" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>-0.1935301563091979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -4513,8 +4936,15 @@
       <c r="K53" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>-1.55</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>3.2305494505441223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -4548,8 +4978,15 @@
       <c r="K54" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>0.05</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>5.7114791561510225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -4583,8 +5020,15 @@
       <c r="K55" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>0.5</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>1.70734931096219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -4618,8 +5062,15 @@
       <c r="K56" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>0.5</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>1.808858539484818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -4653,8 +5104,15 @@
       <c r="K57" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>-1.01</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>2.5047196209955969</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -4688,8 +5146,15 @@
       <c r="K58" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>1.27</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>1.109100776421446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -4723,8 +5188,15 @@
       <c r="K59" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>0.96</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>4.8319921300222113E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -4758,8 +5230,15 @@
       <c r="K60" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>-1.36</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>3.0008791210592709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -4793,8 +5272,15 @@
       <c r="K61" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>-1.57</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>1.1860125049462125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -4828,8 +5314,15 @@
       <c r="K62" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>-1.57</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>1.7232299292237183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -4863,8 +5356,15 @@
       <c r="K63" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>0.18</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>-1.7748360419452118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -4898,8 +5398,15 @@
       <c r="K64" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>-0.1</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>0.10089769675422727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -4933,8 +5440,15 @@
       <c r="K65" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>-0.1</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>-9.4099696193047366E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -4968,8 +5482,15 @@
       <c r="K66" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>-0.78</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>5.6576535687617344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -5003,8 +5524,15 @@
       <c r="K67" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>0.64</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="1">(J67-L67)*2</f>
+        <v>4.4562477521173713</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -5038,8 +5566,15 @@
       <c r="K68" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>2.045717342143436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -5073,8 +5608,15 @@
       <c r="K69" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>-1.03</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>1.5220186645169691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -5108,8 +5650,15 @@
       <c r="K70" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>-1.03</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>3.4579664975896738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -5143,8 +5692,15 @@
       <c r="K71" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>-1.03</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>3.6064881792040455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -5178,8 +5734,15 @@
       <c r="K72" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>-0.75705623351697371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -5213,8 +5776,15 @@
       <c r="K73" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>0.85602402470517014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -5248,8 +5818,15 @@
       <c r="K74" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>-2.62</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>5.1773626376973407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -5283,8 +5860,15 @@
       <c r="K75" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>1.33</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>-0.96562000083634913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -5318,8 +5902,15 @@
       <c r="K76" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>-1.06</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>2.3164835164663717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -5353,8 +5944,15 @@
       <c r="K77" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>-1.61</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>1.9913186812484613</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -5388,8 +5986,15 @@
       <c r="K78" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>-1.01</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>2.7430082263939197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -5423,8 +6028,15 @@
       <c r="K79" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>-2.93</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>5.6312087911272792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -5458,8 +6070,15 @@
       <c r="K80" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>-2.6</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="1"/>
+        <v>5.3523076922936168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -5493,8 +6112,15 @@
       <c r="K81" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>-0.49087912070714723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -5528,8 +6154,15 @@
       <c r="K82" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>1.89</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>0.66132397306964252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -5563,8 +6196,15 @@
       <c r="K83" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>-2.14</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>4.0554945058278102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -5598,8 +6238,15 @@
       <c r="K84" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>-2.25</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>3.6085714287250208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -5633,8 +6280,15 @@
       <c r="K85" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>-2.37</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>-1.8194505482207557</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -5668,8 +6322,15 @@
       <c r="K86" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>-2.82</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>10.034653991316127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -5703,8 +6364,15 @@
       <c r="K87" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>-2.63</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>5.342747252741237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -5738,8 +6406,15 @@
       <c r="K88" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>-2.64</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>4.9666918552903638</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -5773,8 +6448,15 @@
       <c r="K89" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>-2.69</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>7.7191964664962214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -5808,8 +6490,15 @@
       <c r="K90" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>-1.97</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>5.5179240668052945</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -5843,8 +6532,15 @@
       <c r="K91" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>-1.95</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>3.81170158159467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -5878,8 +6574,15 @@
       <c r="K92" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>-1.99</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>6.6473865576889537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -5911,8 +6614,15 @@
         <v>-4.4172002207711732E-2</v>
       </c>
       <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>-0.22</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>0.35165599558457655</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -5946,8 +6656,15 @@
       <c r="K94" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>-1.8</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>3.7533096762739317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -5981,8 +6698,15 @@
       <c r="K95" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>0.79</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>-1.5722927679337488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -6016,8 +6740,15 @@
       <c r="K96" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>-1.67</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>1.9774725275109104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -6051,8 +6782,15 @@
       <c r="K97" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>-0.99</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>-1.0631868120208998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -6086,8 +6824,15 @@
       <c r="K98" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>-1.06</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>0.19703296681349936</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -6121,8 +6866,15 @@
       <c r="K99" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>-0.03</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="1"/>
+        <v>0.41901098903699202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -6156,8 +6908,15 @@
       <c r="K100" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>-0.03</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="1"/>
+        <v>5.5479786830037732</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -6191,8 +6950,15 @@
       <c r="K101" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>-0.03</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>4.540306764264586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>199</v>
       </c>
@@ -6226,8 +6992,15 @@
       <c r="K102" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>0.32</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="1"/>
+        <v>-2.1805494513773196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -6261,8 +7034,15 @@
       <c r="K103" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>-0.49</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="1"/>
+        <v>2.550480232773761</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -6296,8 +7076,15 @@
       <c r="K104" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>-0.98</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="1"/>
+        <v>3.9199731655728698</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -6331,8 +7118,15 @@
       <c r="K105" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>-0.98</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="1"/>
+        <v>5.6089449335374084</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -6366,8 +7160,15 @@
       <c r="K106" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>-0.98</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="1"/>
+        <v>3.5804884880097965</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -6401,8 +7202,15 @@
       <c r="K107" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>-0.98</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="1"/>
+        <v>4.8397276694238442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>210</v>
       </c>
@@ -6436,8 +7244,15 @@
       <c r="K108" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>-0.98</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="1"/>
+        <v>3.0353707365823133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -6471,8 +7286,15 @@
       <c r="K109" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>-0.98</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="1"/>
+        <v>3.5377665999848436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -6506,8 +7328,15 @@
       <c r="K110" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>-0.13</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="1"/>
+        <v>2.6960378953433102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -6541,8 +7370,15 @@
       <c r="K111" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>0.13</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="1"/>
+        <v>-1.665714285817121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -6576,8 +7412,15 @@
       <c r="K112" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>0.13</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="1"/>
+        <v>-0.52369482228727615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -6611,8 +7454,15 @@
       <c r="K113" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>0.13</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="1"/>
+        <v>-0.2354093389069285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>218</v>
       </c>
@@ -6646,8 +7496,15 @@
       <c r="K114" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>0.13</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="1"/>
+        <v>0.25088469999594198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>219</v>
       </c>
@@ -6681,8 +7538,15 @@
       <c r="K115" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>-0.21</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="1"/>
+        <v>-0.23703296748240005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>220</v>
       </c>
@@ -6716,8 +7580,15 @@
       <c r="K116" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>-0.21</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="1"/>
+        <v>1.0725558686697181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>222</v>
       </c>
@@ -6751,8 +7622,15 @@
       <c r="K117" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>-0.04</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="1"/>
+        <v>-0.34692307662312677</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -6786,8 +7664,15 @@
       <c r="K118" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="1"/>
+        <v>0.44976391513101555</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>225</v>
       </c>
@@ -6821,8 +7706,15 @@
       <c r="K119" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="1"/>
+        <v>0.18385471803143916</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -6856,8 +7748,15 @@
       <c r="K120" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="1"/>
+        <v>7.2905089699389913E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>228</v>
       </c>
@@ -6891,8 +7790,15 @@
       <c r="K121" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="1"/>
+        <v>-0.90476237279461125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>229</v>
       </c>
@@ -6926,8 +7832,15 @@
       <c r="K122" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>-1.97</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="1"/>
+        <v>4.3172144329654785</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>231</v>
       </c>
@@ -6961,8 +7874,15 @@
       <c r="K123" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="1"/>
+        <v>3.0225274724432558</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>233</v>
       </c>
@@ -6996,8 +7916,15 @@
       <c r="K124" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>-2.23</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="1"/>
+        <v>2.4715940684396847</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>235</v>
       </c>
@@ -7031,8 +7958,15 @@
       <c r="K125" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>0.06</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="1"/>
+        <v>-1.0304789195647888</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>237</v>
       </c>
@@ -7066,8 +8000,15 @@
       <c r="K126" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>0.06</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="1"/>
+        <v>-0.9597686440071348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>239</v>
       </c>
@@ -7101,8 +8042,15 @@
       <c r="K127" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>0.06</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="1"/>
+        <v>-0.97681318690510122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>240</v>
       </c>
@@ -7136,8 +8084,15 @@
       <c r="K128" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>0.84</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="1"/>
+        <v>-2.1685714284613908</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -7171,8 +8126,15 @@
       <c r="K129" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>1.31</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="1"/>
+        <v>-3.2650683275500803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>243</v>
       </c>
@@ -7206,8 +8168,15 @@
       <c r="K130" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>-1.47</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="1"/>
+        <v>2.1518795881797099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>245</v>
       </c>
@@ -7241,8 +8210,15 @@
       <c r="K131" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>-1.47</v>
+      </c>
+      <c r="M131">
+        <f t="shared" ref="M131:M194" si="2">(J131-L131)*2</f>
+        <v>-4.5592096678074778</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>247</v>
       </c>
@@ -7276,8 +8252,15 @@
       <c r="K132" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>-1.47</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="2"/>
+        <v>4.576153846134293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>248</v>
       </c>
@@ -7311,8 +8294,15 @@
       <c r="K133" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>2.37</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="2"/>
+        <v>-3.575934066296496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>249</v>
       </c>
@@ -7346,8 +8336,15 @@
       <c r="K134" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>1.98</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="2"/>
+        <v>-1.8311581044382499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>251</v>
       </c>
@@ -7381,8 +8378,15 @@
       <c r="K135" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="2"/>
+        <v>-2.1899929750779421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>253</v>
       </c>
@@ -7416,8 +8420,15 @@
       <c r="K136" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="2"/>
+        <v>1.3536905037767109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>255</v>
       </c>
@@ -7451,8 +8462,15 @@
       <c r="K137" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="2"/>
+        <v>1.5091622456682101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>256</v>
       </c>
@@ -7486,8 +8504,15 @@
       <c r="K138" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="2"/>
+        <v>2.0272572427525843</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>257</v>
       </c>
@@ -7521,8 +8546,15 @@
       <c r="K139" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>-1.37</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="2"/>
+        <v>0.17351952869736831</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>259</v>
       </c>
@@ -7556,8 +8588,15 @@
       <c r="K140" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>-1.37</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="2"/>
+        <v>1.434075849615897</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>261</v>
       </c>
@@ -7591,8 +8630,15 @@
       <c r="K141" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="2"/>
+        <v>1.7453846153979575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>262</v>
       </c>
@@ -7626,8 +8672,15 @@
       <c r="K142" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <v>1.19</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="2"/>
+        <v>-2.7301198411561987</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>264</v>
       </c>
@@ -7661,8 +8714,15 @@
       <c r="K143" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>0.6</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="2"/>
+        <v>-1.1600523017389157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>266</v>
       </c>
@@ -7696,8 +8756,15 @@
       <c r="K144" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>0.6</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="2"/>
+        <v>-2.0716483488937376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -7731,8 +8798,15 @@
       <c r="K145" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>-0.3</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="2"/>
+        <v>2.873406592035332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -7766,8 +8840,15 @@
       <c r="K146" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>-0.3</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="2"/>
+        <v>2.0351342505241554</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -7801,8 +8882,15 @@
       <c r="K147" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <v>-0.19</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="2"/>
+        <v>2.5775478033149697</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>272</v>
       </c>
@@ -7836,8 +8924,15 @@
       <c r="K148" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>-0.76</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="2"/>
+        <v>1.4971646051394742</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>274</v>
       </c>
@@ -7871,8 +8966,15 @@
       <c r="K149" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>-0.75</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="2"/>
+        <v>1.2209201235066427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>276</v>
       </c>
@@ -7906,8 +9008,15 @@
       <c r="K150" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>-2.57</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="2"/>
+        <v>4.6042740220246436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>278</v>
       </c>
@@ -7941,8 +9050,15 @@
       <c r="K151" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>-1.9</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="2"/>
+        <v>0.23964048490921996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>280</v>
       </c>
@@ -7976,8 +9092,15 @@
       <c r="K152" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <v>-1.91</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="2"/>
+        <v>0.68902859267077776</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>282</v>
       </c>
@@ -8011,8 +9134,15 @@
       <c r="K153" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <v>-0.59</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="2"/>
+        <v>-2.2524704072164381</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>284</v>
       </c>
@@ -8046,8 +9176,15 @@
       <c r="K154" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <v>-0.59</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="2"/>
+        <v>-0.11719979987056628</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>286</v>
       </c>
@@ -8081,8 +9218,15 @@
       <c r="K155" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>-0.59</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="2"/>
+        <v>-3.073234396064195E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>287</v>
       </c>
@@ -8116,8 +9260,15 @@
       <c r="K156" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156">
+        <v>-0.59</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="2"/>
+        <v>-3.2921734541992986E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>288</v>
       </c>
@@ -8151,8 +9302,15 @@
       <c r="K157" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <v>-0.59</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="2"/>
+        <v>0.80681318753231301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>289</v>
       </c>
@@ -8186,8 +9344,15 @@
       <c r="K158" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158">
+        <v>-1.9</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="2"/>
+        <v>-4.1879120882203962</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>290</v>
       </c>
@@ -8218,8 +9383,15 @@
       <c r="J159">
         <v>-3.525510179323732E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="2"/>
+        <v>2.1894897964135254</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>292</v>
       </c>
@@ -8250,8 +9422,15 @@
       <c r="J160">
         <v>-0.1372887618320591</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <v>-1.05</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="2"/>
+        <v>1.8254224763358819</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>293</v>
       </c>
@@ -8282,8 +9461,15 @@
       <c r="J161">
         <v>-0.16156415825612649</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <v>-1.81</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="2"/>
+        <v>3.2968716834877472</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>294</v>
       </c>
@@ -8314,8 +9500,15 @@
       <c r="J162">
         <v>1.760936256062496E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="2"/>
+        <v>4.9752187251212501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>295</v>
       </c>
@@ -8346,8 +9539,15 @@
       <c r="J163">
         <v>0.12132847770867621</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L163">
+        <v>-3.08</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="2"/>
+        <v>6.4026569554173527</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>296</v>
       </c>
@@ -8378,8 +9578,15 @@
       <c r="J164">
         <v>-0.24057135708407729</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <v>-0.32</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="2"/>
+        <v>0.15885728583184544</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>297</v>
       </c>
@@ -8410,8 +9617,15 @@
       <c r="J165">
         <v>-2.698329784288411E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>-0.06</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="2"/>
+        <v>6.6033404314231769E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>298</v>
       </c>
@@ -8442,8 +9656,15 @@
       <c r="J166">
         <v>-5.3643875966649317E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <v>0.25</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="2"/>
+        <v>-0.60728775193329865</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>299</v>
       </c>
@@ -8474,8 +9695,15 @@
       <c r="J167">
         <v>-2.6818645336136541E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L167">
+        <v>-0.03</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="2"/>
+        <v>6.3627093277269162E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>300</v>
       </c>
@@ -8506,8 +9734,15 @@
       <c r="J168">
         <v>0.18686114777357071</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <v>0.4</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="2"/>
+        <v>-0.42627770445285862</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>301</v>
       </c>
@@ -8538,8 +9773,15 @@
       <c r="J169">
         <v>7.292800939504418E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L169">
+        <v>-1.99</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="2"/>
+        <v>4.1258560187900883</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>302</v>
       </c>
@@ -8570,8 +9812,15 @@
       <c r="J170">
         <v>0.28822798448523668</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L170">
+        <v>-1.69</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="2"/>
+        <v>3.9564559689704732</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>303</v>
       </c>
@@ -8602,8 +9851,15 @@
       <c r="J171">
         <v>0.19567994962175739</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L171">
+        <v>0.35</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="2"/>
+        <v>-0.30864010075648518</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>304</v>
       </c>
@@ -8634,8 +9890,15 @@
       <c r="J172">
         <v>7.4528434276696531E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L172">
+        <v>1.52</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="2"/>
+        <v>-2.890943131446607</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>305</v>
       </c>
@@ -8666,8 +9929,15 @@
       <c r="J173">
         <v>1.027433327243998E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L173">
+        <v>1.52</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="2"/>
+        <v>-3.0194513334551201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>306</v>
       </c>
@@ -8698,8 +9968,15 @@
       <c r="J174">
         <v>-4.7400242467697917E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L174">
+        <v>-1.72</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="2"/>
+        <v>3.3451995150646043</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>307</v>
       </c>
@@ -8730,8 +10007,15 @@
       <c r="J175">
         <v>-6.7375917668946128E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L175">
+        <v>-2.36</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="2"/>
+        <v>4.5852481646621079</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>308</v>
       </c>
@@ -8762,8 +10046,15 @@
       <c r="J176">
         <v>-9.2732446078142572E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <v>0.38</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="2"/>
+        <v>-0.77854648921562852</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>309</v>
       </c>
@@ -8794,8 +10085,15 @@
       <c r="J177">
         <v>-0.17760766111015941</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <v>1.69</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="2"/>
+        <v>-3.7352153222203186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>310</v>
       </c>
@@ -8826,8 +10124,15 @@
       <c r="J178">
         <v>1.635331414384766E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <v>-2.09</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="2"/>
+        <v>4.2127066282876946</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>311</v>
       </c>
@@ -8858,8 +10163,15 @@
       <c r="J179">
         <v>-0.43378762830880452</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179">
+        <v>-2.27</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="2"/>
+        <v>3.6724247433823911</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>312</v>
       </c>
@@ -8890,8 +10202,15 @@
       <c r="J180">
         <v>7.7189222946194569E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <v>-0.46</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="2"/>
+        <v>0.93543784458923895</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>313</v>
       </c>
@@ -8922,8 +10241,15 @@
       <c r="J181">
         <v>-4.1420053352460379E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <v>-0.46</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="2"/>
+        <v>0.83715989329507923</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>314</v>
       </c>
@@ -8954,8 +10280,15 @@
       <c r="J182">
         <v>1.126225019688099E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <v>-1.38</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="2"/>
+        <v>2.782524500393762</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>315</v>
       </c>
@@ -8986,8 +10319,15 @@
       <c r="J183">
         <v>-1.809395604455839</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183">
+        <v>0.1</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="2"/>
+        <v>-3.8187912089116782</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>316</v>
       </c>
@@ -9021,8 +10361,15 @@
       <c r="K184" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="2"/>
+        <v>11.105005597474925</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>318</v>
       </c>
@@ -9056,8 +10403,15 @@
       <c r="K185" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185">
+        <v>1.75</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="2"/>
+        <v>0.99803454107293366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>320</v>
       </c>
@@ -9091,8 +10445,15 @@
       <c r="K186" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186">
+        <v>0.36</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="2"/>
+        <v>-0.55714285715926393</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>322</v>
       </c>
@@ -9126,8 +10487,15 @@
       <c r="K187" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="2"/>
+        <v>5.230769213258224E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>324</v>
       </c>
@@ -9161,8 +10529,15 @@
       <c r="K188" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188">
+        <v>-0.1</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="2"/>
+        <v>-5.354529429688256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>326</v>
       </c>
@@ -9196,8 +10571,15 @@
       <c r="K189" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189">
+        <v>-0.11</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="2"/>
+        <v>0.34923076921510043</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>328</v>
       </c>
@@ -9231,8 +10613,15 @@
       <c r="K190" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190">
+        <v>-1.39</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="2"/>
+        <v>3.0935733667805203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>330</v>
       </c>
@@ -9266,8 +10655,15 @@
       <c r="K191" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191">
+        <v>-1.54</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="2"/>
+        <v>-4.6178021977610175</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>332</v>
       </c>
@@ -9301,8 +10697,15 @@
       <c r="K192" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="2"/>
+        <v>7.4416475794471397</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>334</v>
       </c>
@@ -9336,8 +10739,15 @@
       <c r="K193" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="2"/>
+        <v>3.5918215438703829</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>336</v>
       </c>
@@ -9371,8 +10781,15 @@
       <c r="K194" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194">
+        <v>1.97</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="2"/>
+        <v>-3.0663100645551324</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>338</v>
       </c>
@@ -9406,8 +10823,15 @@
       <c r="K195" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195">
+        <v>0.19</v>
+      </c>
+      <c r="M195">
+        <f t="shared" ref="M195:M258" si="3">(J195-L195)*2</f>
+        <v>0.25989010988868955</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>340</v>
       </c>
@@ -9441,8 +10865,15 @@
       <c r="K196" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196">
+        <v>0.3</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="3"/>
+        <v>-1.3570998295548293</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>342</v>
       </c>
@@ -9476,8 +10907,15 @@
       <c r="K197" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197">
+        <v>0.21</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="3"/>
+        <v>0.89632480857160735</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>344</v>
       </c>
@@ -9511,8 +10949,15 @@
       <c r="K198" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198">
+        <v>0.66</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="3"/>
+        <v>3.2905017733276116</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>346</v>
       </c>
@@ -9546,8 +10991,15 @@
       <c r="K199" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199">
+        <v>-1.01</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="3"/>
+        <v>5.3663272797500321</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>347</v>
       </c>
@@ -9581,8 +11033,15 @@
       <c r="K200" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200">
+        <v>-2.16</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="3"/>
+        <v>3.2310989011023477</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>349</v>
       </c>
@@ -9616,8 +11075,15 @@
       <c r="K201" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201">
+        <v>-1.26</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="3"/>
+        <v>5.2961538457387158</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>351</v>
       </c>
@@ -9651,8 +11117,15 @@
       <c r="K202" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L202">
+        <v>0.42</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="3"/>
+        <v>1.4045767356227623</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>353</v>
       </c>
@@ -9686,8 +11159,15 @@
       <c r="K203" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203">
+        <v>0.85</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="3"/>
+        <v>0.78694277925714817</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>355</v>
       </c>
@@ -9721,8 +11201,15 @@
       <c r="K204" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204">
+        <v>1.02</v>
+      </c>
+      <c r="M204">
+        <f t="shared" si="3"/>
+        <v>-2.1338152230181109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>357</v>
       </c>
@@ -9756,8 +11243,15 @@
       <c r="K205" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205">
+        <v>0.39</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="3"/>
+        <v>-0.75833169328186023</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>359</v>
       </c>
@@ -9791,8 +11285,15 @@
       <c r="K206" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="3"/>
+        <v>-3.9254126938835689</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>361</v>
       </c>
@@ -9826,8 +11327,15 @@
       <c r="K207" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L207">
+        <v>1.65</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="3"/>
+        <v>-11.773297151371072</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>362</v>
       </c>
@@ -9861,8 +11369,15 @@
       <c r="K208" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208">
+        <v>1.65</v>
+      </c>
+      <c r="M208">
+        <f t="shared" si="3"/>
+        <v>-3.2707400037223691</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>364</v>
       </c>
@@ -9896,8 +11411,15 @@
       <c r="K209" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L209">
+        <v>1.33</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="3"/>
+        <v>-2.2570880619978633</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>366</v>
       </c>
@@ -9931,8 +11453,15 @@
       <c r="K210" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210">
+        <v>1.33</v>
+      </c>
+      <c r="M210">
+        <f t="shared" si="3"/>
+        <v>-1.8427472527103874</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>368</v>
       </c>
@@ -9966,8 +11495,15 @@
       <c r="K211" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L211">
+        <v>1.22</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="3"/>
+        <v>3.1817464593590317</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>370</v>
       </c>
@@ -10001,8 +11537,15 @@
       <c r="K212" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212">
+        <v>1.22</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="3"/>
+        <v>0.37266596756071824</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>372</v>
       </c>
@@ -10036,8 +11579,15 @@
       <c r="K213" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213">
+        <v>0.4</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="3"/>
+        <v>-2.4612034224518085</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>374</v>
       </c>
@@ -10071,8 +11621,15 @@
       <c r="K214" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214">
+        <v>-2.29</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="3"/>
+        <v>5.6532858547210223</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>376</v>
       </c>
@@ -10106,8 +11663,15 @@
       <c r="K215" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215">
+        <v>-2.29</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="3"/>
+        <v>6.1741544918756954</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>378</v>
       </c>
@@ -10141,8 +11705,15 @@
       <c r="K216" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L216">
+        <v>-2.13</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="3"/>
+        <v>3.398958164897353</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>380</v>
       </c>
@@ -10176,8 +11747,15 @@
       <c r="K217" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L217">
+        <v>-0.22</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="3"/>
+        <v>-1.0341692720110895</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>382</v>
       </c>
@@ -10211,8 +11789,15 @@
       <c r="K218" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218">
+        <v>0.35</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="3"/>
+        <v>-1.5785345464718181</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>384</v>
       </c>
@@ -10246,8 +11831,15 @@
       <c r="K219" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219">
+        <v>0.91</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="3"/>
+        <v>-2.2758642735384553</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>385</v>
       </c>
@@ -10281,8 +11873,15 @@
       <c r="K220" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>-2.46</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="3"/>
+        <v>5.1570346053604306</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>387</v>
       </c>
@@ -10316,8 +11915,15 @@
       <c r="K221" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221">
+        <v>2.59</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="3"/>
+        <v>-5.5504301749050509</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>389</v>
       </c>
@@ -10351,8 +11957,15 @@
       <c r="K222" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L222">
+        <v>-0.53</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="3"/>
+        <v>2.9382930531645735</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>391</v>
       </c>
@@ -10386,8 +11999,15 @@
       <c r="K223" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223">
+        <v>-1.79</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="3"/>
+        <v>9.4768219804966503</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>393</v>
       </c>
@@ -10421,8 +12041,15 @@
       <c r="K224" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M224">
+        <f t="shared" si="3"/>
+        <v>0.87353728027193811</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>395</v>
       </c>
@@ -10456,8 +12083,15 @@
       <c r="K225" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225">
+        <v>-1.97</v>
+      </c>
+      <c r="M225">
+        <f t="shared" si="3"/>
+        <v>5.3086778704995661</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>397</v>
       </c>
@@ -10491,8 +12125,15 @@
       <c r="K226" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226">
+        <v>-1.97</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="3"/>
+        <v>8.5841312522912823</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>399</v>
       </c>
@@ -10526,8 +12167,15 @@
       <c r="K227" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="3"/>
+        <v>-1.6344114042068005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>401</v>
       </c>
@@ -10561,8 +12209,15 @@
       <c r="K228" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228">
+        <v>2.06</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="3"/>
+        <v>-2.5945635554414568</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>403</v>
       </c>
@@ -10596,8 +12251,15 @@
       <c r="K229" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229">
+        <v>2.06</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="3"/>
+        <v>1.4196560742179098</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>405</v>
       </c>
@@ -10631,8 +12293,15 @@
       <c r="K230" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230">
+        <v>2.06</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="3"/>
+        <v>0.90571025370280989</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>407</v>
       </c>
@@ -10666,8 +12335,15 @@
       <c r="K231" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231">
+        <v>0.38</v>
+      </c>
+      <c r="M231">
+        <f t="shared" si="3"/>
+        <v>2.7969963945972722</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>409</v>
       </c>
@@ -10701,8 +12377,15 @@
       <c r="K232" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232">
+        <v>0.38</v>
+      </c>
+      <c r="M232">
+        <f t="shared" si="3"/>
+        <v>2.8338061569044743</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>411</v>
       </c>
@@ -10736,8 +12419,15 @@
       <c r="K233" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233">
+        <v>0.18</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="3"/>
+        <v>6.4628898470461857</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>413</v>
       </c>
@@ -10771,8 +12461,15 @@
       <c r="K234" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234">
+        <v>0.18</v>
+      </c>
+      <c r="M234">
+        <f t="shared" si="3"/>
+        <v>4.9550312592652777</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>414</v>
       </c>
@@ -10806,8 +12503,15 @@
       <c r="K235" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235">
+        <v>0.18</v>
+      </c>
+      <c r="M235">
+        <f t="shared" si="3"/>
+        <v>2.1206865899924421</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>416</v>
       </c>
@@ -10841,8 +12545,15 @@
       <c r="K236" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236">
+        <v>0.18</v>
+      </c>
+      <c r="M236">
+        <f t="shared" si="3"/>
+        <v>2.727459332527058</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>417</v>
       </c>
@@ -10876,8 +12587,15 @@
       <c r="K237" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237">
+        <v>1.78</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="3"/>
+        <v>-0.15800089510440207</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>419</v>
       </c>
@@ -10911,8 +12629,15 @@
       <c r="K238" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238">
+        <v>-2.08</v>
+      </c>
+      <c r="M238">
+        <f t="shared" si="3"/>
+        <v>10.449657170987319</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>420</v>
       </c>
@@ -10946,8 +12671,15 @@
       <c r="K239" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239">
+        <v>-2.08</v>
+      </c>
+      <c r="M239">
+        <f t="shared" si="3"/>
+        <v>10.909552142746142</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>422</v>
       </c>
@@ -10981,8 +12713,15 @@
       <c r="K240" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240">
+        <v>-2.08</v>
+      </c>
+      <c r="M240">
+        <f t="shared" si="3"/>
+        <v>5.999619408053154</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>424</v>
       </c>
@@ -11016,8 +12755,15 @@
       <c r="K241" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241">
+        <v>-2.08</v>
+      </c>
+      <c r="M241">
+        <f t="shared" si="3"/>
+        <v>5.8163542785658926</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>425</v>
       </c>
@@ -11051,8 +12797,15 @@
       <c r="K242" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242">
+        <v>-2.08</v>
+      </c>
+      <c r="M242">
+        <f t="shared" si="3"/>
+        <v>6.6831558019381578</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>427</v>
       </c>
@@ -11086,8 +12839,15 @@
       <c r="K243" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L243">
+        <v>-2.08</v>
+      </c>
+      <c r="M243">
+        <f t="shared" si="3"/>
+        <v>9.3885696302954216</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>429</v>
       </c>
@@ -11121,8 +12881,15 @@
       <c r="K244" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L244">
+        <v>-2.08</v>
+      </c>
+      <c r="M244">
+        <f t="shared" si="3"/>
+        <v>7.3868279635669403</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>431</v>
       </c>
@@ -11156,8 +12923,15 @@
       <c r="K245" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L245">
+        <v>-2.08</v>
+      </c>
+      <c r="M245">
+        <f t="shared" si="3"/>
+        <v>7.865011096523248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>433</v>
       </c>
@@ -11191,8 +12965,15 @@
       <c r="K246" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L246">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="M246">
+        <f t="shared" si="3"/>
+        <v>3.4711858515094818</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>435</v>
       </c>
@@ -11226,8 +13007,15 @@
       <c r="K247" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L247">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="M247">
+        <f t="shared" si="3"/>
+        <v>9.3669145360690074</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>437</v>
       </c>
@@ -11261,8 +13049,15 @@
       <c r="K248" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L248">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M248">
+        <f t="shared" si="3"/>
+        <v>0.72820600786757184</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>439</v>
       </c>
@@ -11296,8 +13091,15 @@
       <c r="K249" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L249">
+        <v>0.72</v>
+      </c>
+      <c r="M249">
+        <f t="shared" si="3"/>
+        <v>5.6287546085632787</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>441</v>
       </c>
@@ -11331,8 +13133,15 @@
       <c r="K250" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250">
+        <v>0.72</v>
+      </c>
+      <c r="M250">
+        <f t="shared" si="3"/>
+        <v>1.7218404223888459</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>443</v>
       </c>
@@ -11366,8 +13175,15 @@
       <c r="K251" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251">
+        <v>1.86</v>
+      </c>
+      <c r="M251">
+        <f t="shared" si="3"/>
+        <v>2.892798128629448</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>445</v>
       </c>
@@ -11401,8 +13217,15 @@
       <c r="K252" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252">
+        <v>1.86</v>
+      </c>
+      <c r="M252">
+        <f t="shared" si="3"/>
+        <v>0.79342249618646621</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>446</v>
       </c>
@@ -11436,8 +13259,15 @@
       <c r="K253" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L253">
+        <v>1.86</v>
+      </c>
+      <c r="M253">
+        <f t="shared" si="3"/>
+        <v>4.955976498538039</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>448</v>
       </c>
@@ -11471,8 +13301,15 @@
       <c r="K254" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254">
+        <v>1.86</v>
+      </c>
+      <c r="M254">
+        <f t="shared" si="3"/>
+        <v>2.910372137596736</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>450</v>
       </c>
@@ -11506,8 +13343,15 @@
       <c r="K255" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255">
+        <v>1.86</v>
+      </c>
+      <c r="M255">
+        <f t="shared" si="3"/>
+        <v>0.88925041130630378</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>451</v>
       </c>
@@ -11541,8 +13385,15 @@
       <c r="K256" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256">
+        <v>1.86</v>
+      </c>
+      <c r="M256">
+        <f t="shared" si="3"/>
+        <v>2.1249892854687178</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>452</v>
       </c>
@@ -11576,8 +13427,15 @@
       <c r="K257" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257">
+        <v>1.86</v>
+      </c>
+      <c r="M257">
+        <f t="shared" si="3"/>
+        <v>4.5431350271050022</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>454</v>
       </c>
@@ -11611,8 +13469,15 @@
       <c r="K258" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258">
+        <v>1.86</v>
+      </c>
+      <c r="M258">
+        <f t="shared" si="3"/>
+        <v>5.2335833082248211</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>455</v>
       </c>
@@ -11646,8 +13511,15 @@
       <c r="K259" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259">
+        <v>2.21</v>
+      </c>
+      <c r="M259">
+        <f t="shared" ref="M259:M313" si="4">(J259-L259)*2</f>
+        <v>5.538265801875264</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>457</v>
       </c>
@@ -11681,8 +13553,15 @@
       <c r="K260" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260">
+        <v>0.89</v>
+      </c>
+      <c r="M260">
+        <f t="shared" si="4"/>
+        <v>2.603574128407752</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>458</v>
       </c>
@@ -11716,8 +13595,15 @@
       <c r="K261" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261">
+        <v>-0.02</v>
+      </c>
+      <c r="M261">
+        <f t="shared" si="4"/>
+        <v>2.9405417789327042</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>459</v>
       </c>
@@ -11751,8 +13637,15 @@
       <c r="K262" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262">
+        <v>1.41</v>
+      </c>
+      <c r="M262">
+        <f t="shared" si="4"/>
+        <v>-1.5889987165342365</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>460</v>
       </c>
@@ -11786,8 +13679,15 @@
       <c r="K263" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263">
+        <v>-0.53</v>
+      </c>
+      <c r="M263">
+        <f t="shared" si="4"/>
+        <v>9.4847690456306921</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>462</v>
       </c>
@@ -11821,8 +13721,15 @@
       <c r="K264" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264">
+        <v>0.43</v>
+      </c>
+      <c r="M264">
+        <f t="shared" si="4"/>
+        <v>6.0774012092018515</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>464</v>
       </c>
@@ -11856,8 +13763,15 @@
       <c r="K265" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265">
+        <v>2.66</v>
+      </c>
+      <c r="M265">
+        <f t="shared" si="4"/>
+        <v>0.53051634460425401</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>465</v>
       </c>
@@ -11891,8 +13805,15 @@
       <c r="K266" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266">
+        <v>-1.22</v>
+      </c>
+      <c r="M266">
+        <f t="shared" si="4"/>
+        <v>8.8313538920908243</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>466</v>
       </c>
@@ -11926,8 +13847,15 @@
       <c r="K267" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267">
+        <v>-2.57</v>
+      </c>
+      <c r="M267">
+        <f t="shared" si="4"/>
+        <v>11.627339278510973</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>467</v>
       </c>
@@ -11961,8 +13889,15 @@
       <c r="K268" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268">
+        <v>2.17</v>
+      </c>
+      <c r="M268">
+        <f t="shared" si="4"/>
+        <v>1.03218696814975</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>468</v>
       </c>
@@ -11996,8 +13931,15 @@
       <c r="K269" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269">
+        <v>0.84</v>
+      </c>
+      <c r="M269">
+        <f t="shared" si="4"/>
+        <v>3.9029849198876905</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>469</v>
       </c>
@@ -12031,8 +13973,15 @@
       <c r="K270" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270">
+        <v>0.84</v>
+      </c>
+      <c r="M270">
+        <f t="shared" si="4"/>
+        <v>1.3951798700570681</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>470</v>
       </c>
@@ -12066,8 +14015,15 @@
       <c r="K271" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271">
+        <v>0.69</v>
+      </c>
+      <c r="M271">
+        <f t="shared" si="4"/>
+        <v>0.637645706474812</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>471</v>
       </c>
@@ -12101,8 +14057,15 @@
       <c r="K272" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272">
+        <v>0.69</v>
+      </c>
+      <c r="M272">
+        <f t="shared" si="4"/>
+        <v>0.69789174146230026</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>473</v>
       </c>
@@ -12136,8 +14099,15 @@
       <c r="K273" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273">
+        <v>0.69</v>
+      </c>
+      <c r="M273">
+        <f t="shared" si="4"/>
+        <v>0.39337630281411418</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>474</v>
       </c>
@@ -12171,8 +14141,15 @@
       <c r="K274" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274">
+        <v>0.05</v>
+      </c>
+      <c r="M274">
+        <f t="shared" si="4"/>
+        <v>5.7228081006235207</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>476</v>
       </c>
@@ -12206,8 +14183,15 @@
       <c r="K275" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L275">
+        <v>1.66</v>
+      </c>
+      <c r="M275">
+        <f t="shared" si="4"/>
+        <v>4.1717014978074722</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>478</v>
       </c>
@@ -12241,8 +14225,15 @@
       <c r="K276" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L276">
+        <v>2.06</v>
+      </c>
+      <c r="M276">
+        <f t="shared" si="4"/>
+        <v>0.29556544052307565</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>479</v>
       </c>
@@ -12276,8 +14267,15 @@
       <c r="K277" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277">
+        <v>2.06</v>
+      </c>
+      <c r="M277">
+        <f t="shared" si="4"/>
+        <v>1.5855486600151458</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>481</v>
       </c>
@@ -12311,8 +14309,15 @@
       <c r="K278" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278">
+        <v>1.74</v>
+      </c>
+      <c r="M278">
+        <f t="shared" si="4"/>
+        <v>2.745153690895378</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>482</v>
       </c>
@@ -12346,8 +14351,15 @@
       <c r="K279" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279">
+        <v>1.74</v>
+      </c>
+      <c r="M279">
+        <f t="shared" si="4"/>
+        <v>2.708989170568842</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>483</v>
       </c>
@@ -12381,8 +14393,15 @@
       <c r="K280" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280">
+        <v>0.64</v>
+      </c>
+      <c r="M280">
+        <f t="shared" si="4"/>
+        <v>-1.0570592253625239</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>484</v>
       </c>
@@ -12416,8 +14435,15 @@
       <c r="K281" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L281">
+        <v>-0.89</v>
+      </c>
+      <c r="M281">
+        <f t="shared" si="4"/>
+        <v>9.2861537280417661</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>485</v>
       </c>
@@ -12451,8 +14477,15 @@
       <c r="K282" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282">
+        <v>1.74</v>
+      </c>
+      <c r="M282">
+        <f t="shared" si="4"/>
+        <v>3.299431797072248</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>486</v>
       </c>
@@ -12486,8 +14519,15 @@
       <c r="K283" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283">
+        <v>-0.74</v>
+      </c>
+      <c r="M283">
+        <f t="shared" si="4"/>
+        <v>5.7048200346555973</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>487</v>
       </c>
@@ -12521,8 +14561,15 @@
       <c r="K284" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L284">
+        <v>0.11</v>
+      </c>
+      <c r="M284">
+        <f t="shared" si="4"/>
+        <v>3.735937268594054</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>488</v>
       </c>
@@ -12556,8 +14603,15 @@
       <c r="K285" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L285">
+        <v>0.18</v>
+      </c>
+      <c r="M285">
+        <f t="shared" si="4"/>
+        <v>2.3746560983781402</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>490</v>
       </c>
@@ -12591,8 +14645,15 @@
       <c r="K286" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L286">
+        <v>0.12</v>
+      </c>
+      <c r="M286">
+        <f t="shared" si="4"/>
+        <v>7.0983236808684413</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>492</v>
       </c>
@@ -12626,8 +14687,15 @@
       <c r="K287" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L287">
+        <v>0.12</v>
+      </c>
+      <c r="M287">
+        <f t="shared" si="4"/>
+        <v>1.9955153004355461</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>494</v>
       </c>
@@ -12661,8 +14729,12 @@
       <c r="K288" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M288">
+        <f t="shared" si="4"/>
+        <v>1.0245293438285374</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>496</v>
       </c>
@@ -12696,8 +14768,12 @@
       <c r="K289" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M289">
+        <f t="shared" si="4"/>
+        <v>5.4401033735162398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>498</v>
       </c>
@@ -12731,8 +14807,12 @@
       <c r="K290" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M290">
+        <f t="shared" si="4"/>
+        <v>4.1310915862030084</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>500</v>
       </c>
@@ -12766,8 +14846,12 @@
       <c r="K291" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M291">
+        <f t="shared" si="4"/>
+        <v>5.4135117050443959</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>502</v>
       </c>
@@ -12801,8 +14885,12 @@
       <c r="K292" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M292">
+        <f t="shared" si="4"/>
+        <v>4.405614545324374</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>504</v>
       </c>
@@ -12836,8 +14924,12 @@
       <c r="K293" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M293">
+        <f t="shared" si="4"/>
+        <v>-1.5892415596772915</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>506</v>
       </c>
@@ -12871,8 +14963,12 @@
       <c r="K294" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M294">
+        <f t="shared" si="4"/>
+        <v>6.4519200842708964</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>508</v>
       </c>
@@ -12906,8 +15002,12 @@
       <c r="K295" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M295">
+        <f t="shared" si="4"/>
+        <v>3.0671233485993081</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>510</v>
       </c>
@@ -12941,8 +15041,12 @@
       <c r="K296" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M296">
+        <f t="shared" si="4"/>
+        <v>1.5907789977724724</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>511</v>
       </c>
@@ -12976,8 +15080,12 @@
       <c r="K297" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M297">
+        <f t="shared" si="4"/>
+        <v>4.1105448030409644</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>513</v>
       </c>
@@ -13011,8 +15119,12 @@
       <c r="K298" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M298">
+        <f t="shared" si="4"/>
+        <v>4.9981734531642719</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>514</v>
       </c>
@@ -13046,8 +15158,12 @@
       <c r="K299" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M299">
+        <f t="shared" si="4"/>
+        <v>5.4865299987427179</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>515</v>
       </c>
@@ -13081,8 +15197,12 @@
       <c r="K300" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M300">
+        <f t="shared" si="4"/>
+        <v>4.3194483483854436</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>517</v>
       </c>
@@ -13116,8 +15236,12 @@
       <c r="K301" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M301">
+        <f t="shared" si="4"/>
+        <v>4.9138336607980637</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>519</v>
       </c>
@@ -13151,8 +15275,12 @@
       <c r="K302" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M302">
+        <f t="shared" si="4"/>
+        <v>7.3127305122319477</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>521</v>
       </c>
@@ -13186,8 +15314,12 @@
       <c r="K303" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M303">
+        <f t="shared" si="4"/>
+        <v>6.8862402983670483</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>522</v>
       </c>
@@ -13221,8 +15353,12 @@
       <c r="K304" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M304">
+        <f t="shared" si="4"/>
+        <v>6.3763717060390261</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>524</v>
       </c>
@@ -13256,8 +15392,12 @@
       <c r="K305" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M305">
+        <f t="shared" si="4"/>
+        <v>5.8401728321966937</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>525</v>
       </c>
@@ -13291,8 +15431,12 @@
       <c r="K306" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M306">
+        <f t="shared" si="4"/>
+        <v>7.5813384736204643</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>527</v>
       </c>
@@ -13326,8 +15470,12 @@
       <c r="K307" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M307">
+        <f t="shared" si="4"/>
+        <v>1.4323369719246888</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>529</v>
       </c>
@@ -13361,8 +15509,12 @@
       <c r="K308" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M308">
+        <f t="shared" si="4"/>
+        <v>5.0934697516620924</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>531</v>
       </c>
@@ -13396,8 +15548,12 @@
       <c r="K309" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M309">
+        <f t="shared" si="4"/>
+        <v>1.920294661372651</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>533</v>
       </c>
@@ -13431,8 +15587,12 @@
       <c r="K310" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M310">
+        <f t="shared" si="4"/>
+        <v>-0.91909181941061358</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>535</v>
       </c>
@@ -13466,8 +15626,12 @@
       <c r="K311" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M311">
+        <f t="shared" si="4"/>
+        <v>-1.1031603283226383</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>537</v>
       </c>
@@ -13501,8 +15665,12 @@
       <c r="K312" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M312">
+        <f t="shared" si="4"/>
+        <v>-0.50074976449781461</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>539</v>
       </c>
@@ -13536,8 +15704,13 @@
       <c r="K313" t="s">
         <v>752</v>
       </c>
+      <c r="M313">
+        <f t="shared" si="4"/>
+        <v>-0.59261828651346959</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/MDD.xlsx
+++ b/data/MDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGUK\Desktop\Engineering_EKB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73013A2-C70D-46EB-A517-BEA65DEF5745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33C3E28-EC87-4AA9-A58A-016C67581B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="754">
   <si>
     <t>ID</t>
   </si>
@@ -67,10 +67,6 @@
 delta 37-30C growth</t>
   </si>
   <si>
-    <t>30C growth,
-delta with vs without 50C challenge</t>
-  </si>
-  <si>
     <t>DDM</t>
   </si>
   <si>
@@ -2027,9 +2023,6 @@
     <t>B E99A;B I128V;B I135S;B D142F;B Q160L;B P214L</t>
   </si>
   <si>
-    <t xml:space="preserve">B E99A;B I128V;B I135T;B D142F;B N169D;B </t>
-  </si>
-  <si>
     <t>B E99A;B I128V;B I135T;B Q137R;B N169D;B L191I;B H235N</t>
   </si>
   <si>
@@ -2303,17 +2296,17 @@
     <t>ddmut_prediction</t>
   </si>
   <si>
-    <t>Ture-DDM</t>
-  </si>
-  <si>
-    <t>AVERAGE(TRUE-DDM)</t>
+    <t>delta_30</t>
+  </si>
+  <si>
+    <t>B E99A;B I128V;B I135T;B D142F;B N169D;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2334,12 +2327,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2349,7 +2336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2372,29 +2359,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2697,22 +2672,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N313"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="85.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="66.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,27 +2715,21 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>2.1138328529108619</v>
@@ -2788,26 +2756,18 @@
         <v>-1.398545335427585</v>
       </c>
       <c r="K2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L2">
         <v>-0.03</v>
       </c>
-      <c r="M2">
-        <f>(J2-L2)*2</f>
-        <v>-2.7370906708551699</v>
-      </c>
-      <c r="N2">
-        <f>SQRT(AVERAGE(M2:M313))</f>
-        <v>1.4293929512407031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>3.5273775213367209</v>
@@ -2834,22 +2794,18 @@
         <v>2.7040390292247398</v>
       </c>
       <c r="K3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L3">
         <v>-0.03</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M66" si="0">(J3-L3)*2</f>
-        <v>5.4680780584494793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4">
         <v>1.6129518070504509</v>
@@ -2876,22 +2832,18 @@
         <v>0.17567793061103279</v>
       </c>
       <c r="K4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L4">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>2.6113558612220653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
       </c>
       <c r="C5">
         <v>1.895337773912066</v>
@@ -2918,22 +2870,18 @@
         <v>0.9361567099022059</v>
       </c>
       <c r="K5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L5">
         <v>-3.6</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>9.0723134198044129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6">
         <v>1.363832852881969</v>
@@ -2960,22 +2908,18 @@
         <v>-0.69482864519599974</v>
       </c>
       <c r="K6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L6">
         <v>-1.47</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1.5503427096080005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0.87876506034675106</v>
@@ -3002,22 +2946,18 @@
         <v>-0.59013532280218883</v>
       </c>
       <c r="K7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L7">
         <v>-1.47</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>1.7597293543956223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
       </c>
       <c r="C8">
         <v>1.355187320296646</v>
@@ -3044,22 +2984,18 @@
         <v>-1.191091948616219</v>
       </c>
       <c r="K8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L8">
         <v>1.36</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>-5.1021838972324378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
       </c>
       <c r="C9">
         <v>3.2142857140401777E-2</v>
@@ -3086,22 +3022,18 @@
         <v>8.2417582400607994E-3</v>
       </c>
       <c r="K9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L9">
         <v>1.39</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>-2.763516483519878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
       <c r="C10">
         <v>0.91285714287907738</v>
@@ -3128,22 +3060,18 @@
         <v>0.25252747257079627</v>
       </c>
       <c r="K10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L10">
         <v>-2.15</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>4.8050549451415927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
       <c r="C11">
         <v>0.42018072287755842</v>
@@ -3170,22 +3098,18 @@
         <v>-0.36332941092775067</v>
       </c>
       <c r="K11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L11">
         <v>-0.23</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>-0.26665882185550133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
       </c>
       <c r="C12">
         <v>1.6242469885587869</v>
@@ -3212,22 +3136,18 @@
         <v>-0.46535486023424882</v>
       </c>
       <c r="K12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L12">
         <v>-0.27</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>-0.39070972046849761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
       </c>
       <c r="C13">
         <v>2.762801204873945</v>
@@ -3254,22 +3174,18 @@
         <v>-2.6797108258703801</v>
       </c>
       <c r="K13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L13">
         <v>-1.28</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>-2.7994216517407602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
       </c>
       <c r="C14">
         <v>1.066265060339201</v>
@@ -3296,22 +3212,18 @@
         <v>-0.62894727610991208</v>
       </c>
       <c r="K14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L14">
         <v>0.7</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>-2.6578945522198243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
       </c>
       <c r="C15">
         <v>1.8411144578154071</v>
@@ -3338,22 +3250,18 @@
         <v>-1.806129035077064</v>
       </c>
       <c r="K15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L15">
         <v>-1.91</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>0.20774192984587181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16">
         <v>1.7530120480901681</v>
@@ -3380,22 +3288,18 @@
         <v>0.68284801102573289</v>
       </c>
       <c r="K16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L16">
         <v>1.25</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>-1.1343039779485342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
       </c>
       <c r="C17">
         <v>1.4457831328066411</v>
@@ -3422,22 +3326,18 @@
         <v>-0.22566651464323309</v>
       </c>
       <c r="K17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L17">
         <v>-0.04</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>-0.37133302928646617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>1.1114457832318589</v>
@@ -3464,22 +3364,18 @@
         <v>-0.2324370368608345</v>
       </c>
       <c r="K18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L18">
         <v>-0.04</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>-0.38487407372166899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
       </c>
       <c r="C19">
         <v>1.662650602063261</v>
@@ -3506,22 +3402,18 @@
         <v>-1.409006287116735</v>
       </c>
       <c r="K19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L19">
         <v>-0.01</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>-2.7980125742334701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
       </c>
       <c r="C20">
         <v>0.32999999999770829</v>
@@ -3548,22 +3440,18 @@
         <v>-0.39923076922135847</v>
       </c>
       <c r="K20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L20">
         <v>-3.18</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>5.5615384615572836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
       </c>
       <c r="C21">
         <v>0.75432276655270292</v>
@@ -3590,22 +3478,18 @@
         <v>0.15872071166903831</v>
       </c>
       <c r="K21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L21">
         <v>-0.2</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>0.71744142333807659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3632,22 +3516,18 @@
         <v>5.4698457219309458E-2</v>
       </c>
       <c r="K22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L22">
         <v>2.16</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>-4.210603085561381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
       </c>
       <c r="C23">
         <v>0.24423631119564471</v>
@@ -3674,22 +3554,18 @@
         <v>7.1331711335942488E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L23">
         <v>-0.09</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>0.32266342267188497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
       </c>
       <c r="C24">
         <v>1.7700000003002081</v>
@@ -3716,22 +3592,18 @@
         <v>-0.52384615433620407</v>
       </c>
       <c r="K24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L24">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>1.2723076913275917</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
       </c>
       <c r="C25">
         <v>1.8182683162425279</v>
@@ -3758,22 +3630,18 @@
         <v>2.0247230980793729E-2</v>
       </c>
       <c r="K25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L25">
         <v>-3.37</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>6.7804944619615881</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
       </c>
       <c r="C26">
         <v>1.1057142857214881</v>
@@ -3800,22 +3668,18 @@
         <v>-1.001868131886013</v>
       </c>
       <c r="K26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L26">
         <v>-3.26</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>4.5162637362279732</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
       </c>
       <c r="C27">
         <v>0.21857142862348211</v>
@@ -3842,22 +3706,18 @@
         <v>-0.26472527477258218</v>
       </c>
       <c r="K27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L27">
         <v>0.59</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>-1.7094505495451644</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
       </c>
       <c r="C28">
         <v>1.266428571137038</v>
@@ -3884,22 +3744,18 @@
         <v>-1.0933516480779131</v>
       </c>
       <c r="K28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L28">
         <v>-1.25</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>0.31329670384417385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
       </c>
       <c r="C29">
         <v>-1.4999999998854169E-2</v>
@@ -3926,22 +3782,18 @@
         <v>1.4999999998854169E-2</v>
       </c>
       <c r="K29" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L29">
         <v>-2.36</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>4.7499999999977085</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
       </c>
       <c r="C30">
         <v>1.6398667937038791</v>
@@ -3968,22 +3820,18 @@
         <v>1.0231221731201661</v>
       </c>
       <c r="K30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L30">
         <v>-2.16</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>6.3662443462403324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
       </c>
       <c r="C31">
         <v>3.600856327061531</v>
@@ -4010,22 +3858,18 @@
         <v>2.1132860996740321</v>
       </c>
       <c r="K31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L31">
         <v>-1.1200000000000001</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>6.4665721993480645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
         <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
       </c>
       <c r="C32">
         <v>1.906755470609693</v>
@@ -4052,22 +3896,18 @@
         <v>1.3008673987401029</v>
       </c>
       <c r="K32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L32">
         <v>-1.44</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>5.4817347974802058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
       </c>
       <c r="C33">
         <v>0.94071428572263394</v>
@@ -4094,22 +3934,18 @@
         <v>-0.28302197803625878</v>
       </c>
       <c r="K33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L33">
         <v>-0.68</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
-        <v>0.79395604392748254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
       </c>
       <c r="C34">
         <v>1.585714285822321</v>
@@ -4136,22 +3972,18 @@
         <v>-1.118406593470135</v>
       </c>
       <c r="K34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L34">
         <v>0.02</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
-        <v>-2.2768131869402701</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
       </c>
       <c r="C35">
         <v>2.435878962806389</v>
@@ -4178,22 +4010,18 @@
         <v>0.95963295822056205</v>
       </c>
       <c r="K35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L35">
         <v>-0.87</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
-        <v>3.6592659164411243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>2.4726224777386858</v>
@@ -4220,22 +4048,18 @@
         <v>0.74617135194850981</v>
       </c>
       <c r="K36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L36">
         <v>-0.87</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
-        <v>3.2323427038970198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>2.4847764035128082</v>
@@ -4262,22 +4086,18 @@
         <v>-0.18587971306334561</v>
       </c>
       <c r="K37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L37">
         <v>-0.87</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="0"/>
-        <v>1.3682405738733088</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
       </c>
       <c r="C38">
         <v>0.53357142861087792</v>
@@ -4304,22 +4124,18 @@
         <v>0.14142857135056039</v>
       </c>
       <c r="K38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L38">
         <v>-0.73</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
-        <v>1.7428571427011208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
       </c>
       <c r="C39">
         <v>1.724999999467187</v>
@@ -4346,22 +4162,18 @@
         <v>0.1730769236304999</v>
       </c>
       <c r="K39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L39">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
-        <v>1.5061538472609997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
       </c>
       <c r="C40">
         <v>2.1479543295642638</v>
@@ -4388,22 +4200,18 @@
         <v>-0.1439422926409519</v>
       </c>
       <c r="K40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L40">
         <v>-0.53</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="0"/>
-        <v>0.77211541471809619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
         <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
       </c>
       <c r="C41">
         <v>0.59785714289168157</v>
@@ -4430,22 +4238,18 @@
         <v>7.1373626208571128E-2</v>
       </c>
       <c r="K41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L41">
         <v>-2.61</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="0"/>
-        <v>5.362747252417142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
         <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
       </c>
       <c r="C42">
         <v>2.461941008591229</v>
@@ -4472,22 +4276,18 @@
         <v>1.6754712274725609</v>
       </c>
       <c r="K42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L42">
         <v>-1.22</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="0"/>
-        <v>5.7909424549451218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
         <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
       </c>
       <c r="C43">
         <v>2.9322289154194219</v>
@@ -4514,22 +4314,18 @@
         <v>2.6217069445263959</v>
       </c>
       <c r="K43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L43">
         <v>-0.26</v>
       </c>
-      <c r="M43">
-        <f t="shared" si="0"/>
-        <v>5.7634138890527922</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
         <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
       </c>
       <c r="C44">
         <v>0.655120481943538</v>
@@ -4556,22 +4352,18 @@
         <v>0.42068126744758871</v>
       </c>
       <c r="K44" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L44">
         <v>-0.82</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="0"/>
-        <v>2.4813625348951773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
         <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
       </c>
       <c r="C45">
         <v>1.856803044695716</v>
@@ -4598,22 +4390,18 @@
         <v>0.28261521063422679</v>
       </c>
       <c r="K45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L45">
         <v>-0.15</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="0"/>
-        <v>0.86523042126845362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
         <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
       </c>
       <c r="C46">
         <v>0.96181556189145878</v>
@@ -4640,22 +4428,18 @@
         <v>0.2878338069106483</v>
       </c>
       <c r="K46" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L46">
         <v>1.27</v>
       </c>
-      <c r="M46">
-        <f t="shared" si="0"/>
-        <v>-1.9643323861787034</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47">
         <v>1.391566265190497</v>
@@ -4682,22 +4466,18 @@
         <v>0.65945414300856098</v>
       </c>
       <c r="K47" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L47">
         <v>1.27</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="0"/>
-        <v>-1.2210917139828781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
       </c>
       <c r="C48">
         <v>2.5432921030947488</v>
@@ -4724,22 +4504,18 @@
         <v>1.795724948542863</v>
       </c>
       <c r="K48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L48">
         <v>-1.54</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="0"/>
-        <v>6.6714498970857257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
       <c r="C49">
         <v>1.5129682995136409E-2</v>
@@ -4766,22 +4542,18 @@
         <v>5.9081851683863377E-3</v>
       </c>
       <c r="K49" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L49">
         <v>0.01</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="0"/>
-        <v>-8.183629663227325E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
       </c>
       <c r="C50">
         <v>0.1880403458082528</v>
@@ -4808,22 +4580,18 @@
         <v>6.0206498427270549E-2</v>
       </c>
       <c r="K50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L50">
         <v>0.13</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="0"/>
-        <v>-0.13958700314545891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
       </c>
       <c r="C51">
         <v>0.74567723338951009</v>
@@ -4850,22 +4618,18 @@
         <v>0.18419653940624711</v>
       </c>
       <c r="K51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="0"/>
-        <v>-1.6316069211875057</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
       </c>
       <c r="C52">
         <v>1.7936746991042649</v>
@@ -4892,22 +4656,18 @@
         <v>-0.37676507815459898</v>
       </c>
       <c r="K52" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L52">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="0"/>
-        <v>-0.1935301563091979</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
       </c>
       <c r="C53">
         <v>-3.6428571425788689E-2</v>
@@ -4934,22 +4694,18 @@
         <v>6.5274725272061185E-2</v>
       </c>
       <c r="K53" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L53">
         <v>-1.55</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="0"/>
-        <v>3.2305494505441223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
       </c>
       <c r="C54">
         <v>4.343006660486517</v>
@@ -4976,22 +4732,18 @@
         <v>2.9057395780755111</v>
       </c>
       <c r="K54" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L54">
         <v>0.05</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="0"/>
-        <v>5.7114791561510225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
       </c>
       <c r="C55">
         <v>2.412103746174207</v>
@@ -5018,22 +4770,18 @@
         <v>1.353674655481095</v>
       </c>
       <c r="K55" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L55">
         <v>0.5</v>
       </c>
-      <c r="M55">
-        <f t="shared" si="0"/>
-        <v>1.70734931096219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56">
         <v>2.639048990696744</v>
@@ -5060,22 +4808,18 @@
         <v>1.404429269742409</v>
       </c>
       <c r="K56" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L56">
         <v>0.5</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="0"/>
-        <v>1.808858539484818</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
       </c>
       <c r="C57">
         <v>0.91912464292247831</v>
@@ -5102,22 +4846,18 @@
         <v>0.24235981049779831</v>
       </c>
       <c r="K57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L57">
         <v>-1.01</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="0"/>
-        <v>2.5047196209955969</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
       </c>
       <c r="C58">
         <v>2.5617469885210391</v>
@@ -5144,22 +4884,18 @@
         <v>1.824550388210723</v>
       </c>
       <c r="K58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L58">
         <v>1.27</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="0"/>
-        <v>1.109100776421446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
         <v>118</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
       </c>
       <c r="C59">
         <v>2.541786743044228</v>
@@ -5186,22 +4922,18 @@
         <v>0.98415996065011102</v>
       </c>
       <c r="K59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L59">
         <v>0.96</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="0"/>
-        <v>4.8319921300222113E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
-      </c>
-      <c r="B60" t="s">
-        <v>121</v>
       </c>
       <c r="C60">
         <v>0.5807142857043005</v>
@@ -5228,22 +4960,18 @@
         <v>0.14043956052963541</v>
       </c>
       <c r="K60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L60">
         <v>-1.36</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="0"/>
-        <v>3.0008791210592709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
         <v>122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>123</v>
       </c>
       <c r="C61">
         <v>1.452449567949162</v>
@@ -5270,22 +4998,18 @@
         <v>-0.97699374752689383</v>
       </c>
       <c r="K61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L61">
         <v>-1.57</v>
       </c>
-      <c r="M61">
-        <f t="shared" si="0"/>
-        <v>1.1860125049462125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62">
         <v>0.76729106623970489</v>
@@ -5312,22 +5036,18 @@
         <v>-0.7083850353881409</v>
       </c>
       <c r="K62" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L62">
         <v>-1.57</v>
       </c>
-      <c r="M62">
-        <f t="shared" si="0"/>
-        <v>1.7232299292237183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
         <v>125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>126</v>
       </c>
       <c r="C63">
         <v>1.599423631145569</v>
@@ -5354,22 +5074,18 @@
         <v>-0.70741802097260598</v>
       </c>
       <c r="K63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L63">
         <v>0.18</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="0"/>
-        <v>-1.7748360419452118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
         <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>128</v>
       </c>
       <c r="C64">
         <v>0.91210374634756808</v>
@@ -5396,22 +5112,18 @@
         <v>-4.9551151622886369E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L64">
         <v>-0.1</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="0"/>
-        <v>0.10089769675422727</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65">
         <v>0.70244956768912037</v>
@@ -5438,22 +5150,18 @@
         <v>-0.14704984809652369</v>
       </c>
       <c r="K65" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L65">
         <v>-0.1</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="0"/>
-        <v>-9.4099696193047366E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
       </c>
       <c r="C66">
         <v>2.8829686015992801</v>
@@ -5480,22 +5188,18 @@
         <v>2.048826784380867</v>
       </c>
       <c r="K66" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L66">
         <v>-0.78</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="0"/>
-        <v>5.6576535687617344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
       </c>
       <c r="C67">
         <v>3.565176023164331</v>
@@ -5522,22 +5226,18 @@
         <v>2.8681238760586858</v>
       </c>
       <c r="K67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L67">
         <v>0.64</v>
       </c>
-      <c r="M67">
-        <f t="shared" ref="M67:M130" si="1">(J67-L67)*2</f>
-        <v>4.4562477521173713</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
       </c>
       <c r="C68">
         <v>2.7759276876181942</v>
@@ -5564,22 +5264,18 @@
         <v>2.1528586710717179</v>
       </c>
       <c r="K68" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L68">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M68">
-        <f t="shared" si="1"/>
-        <v>2.045717342143436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
       </c>
       <c r="C69">
         <v>1.8047550436269291</v>
@@ -5606,22 +5302,18 @@
         <v>-0.26899066774151548</v>
       </c>
       <c r="K69" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L69">
         <v>-1.03</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="1"/>
-        <v>1.5220186645169691</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70">
         <v>0.76641293986139658</v>
@@ -5648,22 +5340,18 @@
         <v>0.69898324879483686</v>
       </c>
       <c r="K70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L70">
         <v>-1.03</v>
       </c>
-      <c r="M70">
-        <f t="shared" si="1"/>
-        <v>3.4579664975896738</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71">
         <v>4.1374881069554714</v>
@@ -5690,22 +5378,18 @@
         <v>0.77324408960202273</v>
       </c>
       <c r="K71" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L71">
         <v>-1.03</v>
       </c>
-      <c r="M71">
-        <f t="shared" si="1"/>
-        <v>3.6064881792040455</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
         <v>140</v>
-      </c>
-      <c r="B72" t="s">
-        <v>141</v>
       </c>
       <c r="C72">
         <v>2.9200288187894432</v>
@@ -5732,22 +5416,18 @@
         <v>1.691471883241513</v>
       </c>
       <c r="K72" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L72">
         <v>2.0699999999999998</v>
       </c>
-      <c r="M72">
-        <f t="shared" si="1"/>
-        <v>-0.75705623351697371</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
         <v>142</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
       </c>
       <c r="C73">
         <v>0.17723342944094239</v>
@@ -5774,22 +5454,18 @@
         <v>-0.15198798764741489</v>
       </c>
       <c r="K73" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L73">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="M73">
-        <f t="shared" si="1"/>
-        <v>0.85602402470517014</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s">
         <v>144</v>
-      </c>
-      <c r="B74" t="s">
-        <v>145</v>
       </c>
       <c r="C74">
         <v>0.79285714279657737</v>
@@ -5816,22 +5492,18 @@
         <v>-3.1318681151329519E-2</v>
       </c>
       <c r="K74" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L74">
         <v>-2.62</v>
       </c>
-      <c r="M74">
-        <f t="shared" si="1"/>
-        <v>5.1773626376973407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
         <v>146</v>
-      </c>
-      <c r="B75" t="s">
-        <v>147</v>
       </c>
       <c r="C75">
         <v>2.947193149530035</v>
@@ -5858,22 +5530,18 @@
         <v>0.8471899995818255</v>
       </c>
       <c r="K75" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L75">
         <v>1.33</v>
       </c>
-      <c r="M75">
-        <f t="shared" si="1"/>
-        <v>-0.96562000083634913</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
         <v>148</v>
-      </c>
-      <c r="B76" t="s">
-        <v>149</v>
       </c>
       <c r="C76">
         <v>-5.7857142852723212E-2</v>
@@ -5900,22 +5568,18 @@
         <v>9.8241758233185789E-2</v>
       </c>
       <c r="K76" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L76">
         <v>-1.06</v>
       </c>
-      <c r="M76">
-        <f t="shared" si="1"/>
-        <v>2.3164835164663717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" t="s">
         <v>150</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
       </c>
       <c r="C77">
         <v>0.68357142859941955</v>
@@ -5942,22 +5606,18 @@
         <v>-0.61434065937576943</v>
       </c>
       <c r="K77" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L77">
         <v>-1.61</v>
       </c>
-      <c r="M77">
-        <f t="shared" si="1"/>
-        <v>1.9913186812484613</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
         <v>152</v>
-      </c>
-      <c r="B78" t="s">
-        <v>153</v>
       </c>
       <c r="C78">
         <v>1.8411037104009449</v>
@@ -5984,22 +5644,18 @@
         <v>0.36150411319695991</v>
       </c>
       <c r="K78" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L78">
         <v>-1.01</v>
       </c>
-      <c r="M78">
-        <f t="shared" si="1"/>
-        <v>2.7430082263939197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
         <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
       </c>
       <c r="C79">
         <v>0.25285714288366068</v>
@@ -6026,22 +5682,18 @@
         <v>-0.1143956044363604</v>
       </c>
       <c r="K79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L79">
         <v>-2.93</v>
       </c>
-      <c r="M79">
-        <f t="shared" si="1"/>
-        <v>5.6312087911272792</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
         <v>156</v>
-      </c>
-      <c r="B80" t="s">
-        <v>157</v>
       </c>
       <c r="C80">
         <v>-2.9999999997708329E-2</v>
@@ -6068,22 +5720,18 @@
         <v>7.6153846146808424E-2</v>
       </c>
       <c r="K80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L80">
         <v>-2.6</v>
       </c>
-      <c r="M80">
-        <f t="shared" si="1"/>
-        <v>5.3523076922936168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
         <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
       </c>
       <c r="C81">
         <v>1.219285714158199</v>
@@ -6110,22 +5758,18 @@
         <v>-0.81543956035357357</v>
       </c>
       <c r="K81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L81">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="M81">
-        <f t="shared" si="1"/>
-        <v>-0.49087912070714723</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -6152,22 +5796,18 @@
         <v>2.2206619865348212</v>
       </c>
       <c r="K82" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L82">
         <v>1.89</v>
       </c>
-      <c r="M82">
-        <f t="shared" si="1"/>
-        <v>0.66132397306964252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
         <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
       </c>
       <c r="C83">
         <v>0.70071428567221727</v>
@@ -6194,22 +5834,18 @@
         <v>-0.1122527470860949</v>
       </c>
       <c r="K83" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L83">
         <v>-2.14</v>
       </c>
-      <c r="M83">
-        <f t="shared" si="1"/>
-        <v>4.0554945058278102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
         <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
       </c>
       <c r="C84">
         <v>2.0957142857146129</v>
@@ -6236,22 +5872,18 @@
         <v>-0.4457142856374896</v>
       </c>
       <c r="K84" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L84">
         <v>-2.25</v>
       </c>
-      <c r="M84">
-        <f t="shared" si="1"/>
-        <v>3.6085714287250208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
         <v>166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
       </c>
       <c r="C85">
         <v>4.1335714279921278</v>
@@ -6278,22 +5910,18 @@
         <v>-3.279725274110378</v>
       </c>
       <c r="K85" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L85">
         <v>-2.37</v>
       </c>
-      <c r="M85">
-        <f t="shared" si="1"/>
-        <v>-1.8194505482207557</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>169</v>
       </c>
       <c r="C86">
         <v>3.0413891530091761</v>
@@ -6320,22 +5948,18 @@
         <v>2.197326995658063</v>
       </c>
       <c r="K86" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L86">
         <v>-2.82</v>
       </c>
-      <c r="M86">
-        <f t="shared" si="1"/>
-        <v>10.034653991316127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
         <v>170</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
       </c>
       <c r="C87">
         <v>-4.7142857139255943E-2</v>
@@ -6362,22 +5986,18 @@
         <v>4.1373626370618428E-2</v>
       </c>
       <c r="K87" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L87">
         <v>-2.63</v>
       </c>
-      <c r="M87">
-        <f t="shared" si="1"/>
-        <v>5.342747252741237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" t="s">
         <v>172</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
       </c>
       <c r="C88">
         <v>1.5799238818439441</v>
@@ -6404,22 +6024,18 @@
         <v>-0.15665407235481801</v>
       </c>
       <c r="K88" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L88">
         <v>-2.64</v>
       </c>
-      <c r="M88">
-        <f t="shared" si="1"/>
-        <v>4.9666918552903638</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
         <v>174</v>
-      </c>
-      <c r="B89" t="s">
-        <v>175</v>
       </c>
       <c r="C89">
         <v>2.3720266411829081</v>
@@ -6446,22 +6062,18 @@
         <v>1.169598233248111</v>
       </c>
       <c r="K89" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L89">
         <v>-2.69</v>
       </c>
-      <c r="M89">
-        <f t="shared" si="1"/>
-        <v>7.7191964664962214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
         <v>176</v>
-      </c>
-      <c r="B90" t="s">
-        <v>177</v>
       </c>
       <c r="C90">
         <v>2.4276879162088609</v>
@@ -6488,22 +6100,18 @@
         <v>0.78896203340264748</v>
       </c>
       <c r="K90" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L90">
         <v>-1.97</v>
       </c>
-      <c r="M90">
-        <f t="shared" si="1"/>
-        <v>5.5179240668052945</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
         <v>178</v>
-      </c>
-      <c r="B91" t="s">
-        <v>179</v>
       </c>
       <c r="C91">
         <v>7.7809798260701543E-2</v>
@@ -6530,22 +6138,18 @@
         <v>-4.4149209202664963E-2</v>
       </c>
       <c r="K91" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L91">
         <v>-1.95</v>
       </c>
-      <c r="M91">
-        <f t="shared" si="1"/>
-        <v>3.81170158159467</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" t="s">
         <v>180</v>
-      </c>
-      <c r="B92" t="s">
-        <v>181</v>
       </c>
       <c r="C92">
         <v>1.873929590505319</v>
@@ -6572,22 +6176,18 @@
         <v>1.3336932788444771</v>
       </c>
       <c r="K92" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L92">
         <v>-1.99</v>
       </c>
-      <c r="M92">
-        <f t="shared" si="1"/>
-        <v>6.6473865576889537</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
         <v>182</v>
-      </c>
-      <c r="B93" t="s">
-        <v>183</v>
       </c>
       <c r="C93">
         <v>-9.9904852514800403E-3</v>
@@ -6615,19 +6215,15 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93">
-        <v>-0.22</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="1"/>
-        <v>0.35165599558457655</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
         <v>184</v>
-      </c>
-      <c r="B94" t="s">
-        <v>185</v>
       </c>
       <c r="C94">
         <v>1.307636887032281</v>
@@ -6654,22 +6250,18 @@
         <v>7.665483813696583E-2</v>
       </c>
       <c r="K94" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L94">
-        <v>-1.8</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="1"/>
-        <v>3.7533096762739317</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s">
         <v>186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>187</v>
       </c>
       <c r="C95">
         <v>-3.9961941005920161E-2</v>
@@ -6696,22 +6288,18 @@
         <v>3.8536160331256448E-3</v>
       </c>
       <c r="K95" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L95">
-        <v>0.79</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="1"/>
-        <v>-1.5722927679337488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s">
         <v>188</v>
-      </c>
-      <c r="B96" t="s">
-        <v>189</v>
       </c>
       <c r="C96">
         <v>0.6235714285581696</v>
@@ -6738,22 +6326,18 @@
         <v>-0.68126373624454473</v>
       </c>
       <c r="K96" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L96">
-        <v>-1.67</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="1"/>
-        <v>1.9774725275109104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
         <v>190</v>
-      </c>
-      <c r="B97" t="s">
-        <v>191</v>
       </c>
       <c r="C97">
         <v>2.1042857137353872</v>
@@ -6780,22 +6364,18 @@
         <v>-1.5215934060104499</v>
       </c>
       <c r="K97" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L97">
-        <v>-0.99</v>
-      </c>
-      <c r="M97">
-        <f t="shared" si="1"/>
-        <v>-1.0631868120208998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" t="s">
         <v>192</v>
-      </c>
-      <c r="B98" t="s">
-        <v>193</v>
       </c>
       <c r="C98">
         <v>1.2557142858246131</v>
@@ -6822,22 +6402,18 @@
         <v>-0.96148351659325038</v>
       </c>
       <c r="K98" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L98">
-        <v>-1.06</v>
-      </c>
-      <c r="M98">
-        <f t="shared" si="1"/>
-        <v>0.19703296681349936</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
         <v>194</v>
-      </c>
-      <c r="B99" t="s">
-        <v>195</v>
       </c>
       <c r="C99">
         <v>1.0435714286177531</v>
@@ -6864,22 +6440,18 @@
         <v>0.17950549451849601</v>
       </c>
       <c r="K99" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L99">
-        <v>-0.03</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="1"/>
-        <v>0.41901098903699202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
         <v>196</v>
-      </c>
-      <c r="B100" t="s">
-        <v>197</v>
       </c>
       <c r="C100">
         <v>4.3843958134956944</v>
@@ -6906,22 +6478,18 @@
         <v>2.7439893415018868</v>
       </c>
       <c r="K100" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L100">
         <v>-0.03</v>
       </c>
-      <c r="M100">
-        <f t="shared" si="1"/>
-        <v>5.5479786830037732</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C101">
         <v>3.4709800189220279</v>
@@ -6948,22 +6516,18 @@
         <v>2.2401533821322932</v>
       </c>
       <c r="K101" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L101">
         <v>-0.03</v>
       </c>
-      <c r="M101">
-        <f t="shared" si="1"/>
-        <v>4.540306764264586</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C102">
         <v>2.0164285716526642</v>
@@ -6990,22 +6554,18 @@
         <v>-0.77027472568865973</v>
       </c>
       <c r="K102" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L102">
-        <v>0.32</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="1"/>
-        <v>-2.1805494513773196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
         <v>200</v>
-      </c>
-      <c r="B103" t="s">
-        <v>201</v>
       </c>
       <c r="C103">
         <v>2.2478591813922191</v>
@@ -7032,22 +6592,18 @@
         <v>0.78524011638688052</v>
       </c>
       <c r="K103" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L103">
-        <v>-0.49</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="1"/>
-        <v>2.550480232773761</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
         <v>202</v>
-      </c>
-      <c r="B104" t="s">
-        <v>203</v>
       </c>
       <c r="C104">
         <v>1.204567078679051</v>
@@ -7074,22 +6630,18 @@
         <v>0.97998658278643491</v>
       </c>
       <c r="K104" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L104">
-        <v>-0.98</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="1"/>
-        <v>3.9199731655728698</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
         <v>204</v>
-      </c>
-      <c r="B105" t="s">
-        <v>205</v>
       </c>
       <c r="C105">
         <v>2.240723120765411</v>
@@ -7098,10 +6650,10 @@
         <v>4.0651955875341148</v>
       </c>
       <c r="E105" t="s">
+        <v>205</v>
+      </c>
+      <c r="F105" t="s">
         <v>206</v>
-      </c>
-      <c r="F105" t="s">
-        <v>207</v>
       </c>
       <c r="G105">
         <v>4.8100418405734926</v>
@@ -7116,22 +6668,18 @@
         <v>1.824472466768704</v>
       </c>
       <c r="K105" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L105">
         <v>-0.98</v>
       </c>
-      <c r="M105">
-        <f t="shared" si="1"/>
-        <v>5.6089449335374084</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C106">
         <v>1.1817316837574721</v>
@@ -7158,22 +6706,18 @@
         <v>0.81024424400489825</v>
       </c>
       <c r="K106" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L106">
         <v>-0.98</v>
       </c>
-      <c r="M106">
-        <f t="shared" si="1"/>
-        <v>3.5804884880097965</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C107">
         <v>2.3063748809741602</v>
@@ -7200,22 +6744,18 @@
         <v>1.4398638347119219</v>
       </c>
       <c r="K107" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L107">
         <v>-0.98</v>
       </c>
-      <c r="M107">
-        <f t="shared" si="1"/>
-        <v>4.8397276694238442</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C108">
         <v>0.70504281633399746</v>
@@ -7242,22 +6782,18 @@
         <v>0.53768536829115665</v>
       </c>
       <c r="K108" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L108">
         <v>-0.98</v>
       </c>
-      <c r="M108">
-        <f t="shared" si="1"/>
-        <v>3.0353707365823133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C109">
         <v>1.287345385460565</v>
@@ -7284,22 +6820,18 @@
         <v>0.78888329999242179</v>
       </c>
       <c r="K109" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L109">
         <v>-0.98</v>
       </c>
-      <c r="M109">
-        <f t="shared" si="1"/>
-        <v>3.5377665999848436</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C110">
         <v>1.6826831589910489</v>
@@ -7326,22 +6858,18 @@
         <v>1.218018947671655</v>
       </c>
       <c r="K110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L110">
-        <v>-0.13</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="1"/>
-        <v>2.6960378953433102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" t="s">
         <v>213</v>
-      </c>
-      <c r="B111" t="s">
-        <v>214</v>
       </c>
       <c r="C111">
         <v>0.77785714290084818</v>
@@ -7368,22 +6896,18 @@
         <v>-0.70285714290856049</v>
       </c>
       <c r="K111" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L111">
-        <v>0.13</v>
-      </c>
-      <c r="M111">
-        <f t="shared" si="1"/>
-        <v>-1.665714285817121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" t="s">
         <v>215</v>
-      </c>
-      <c r="B112" t="s">
-        <v>216</v>
       </c>
       <c r="C112">
         <v>1.474063399990339</v>
@@ -7410,22 +6934,18 @@
         <v>-0.1318474111436381</v>
       </c>
       <c r="K112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L112">
         <v>0.13</v>
       </c>
-      <c r="M112">
-        <f t="shared" si="1"/>
-        <v>-0.52369482228727615</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113">
         <v>0.95965417857176716</v>
@@ -7452,22 +6972,18 @@
         <v>1.2295330546535751E-2</v>
       </c>
       <c r="K113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L113">
         <v>0.13</v>
       </c>
-      <c r="M113">
-        <f t="shared" si="1"/>
-        <v>-0.2354093389069285</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C114">
         <v>0.96622264504362976</v>
@@ -7494,22 +7010,18 @@
         <v>0.255442349997971</v>
       </c>
       <c r="K114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L114">
         <v>0.13</v>
       </c>
-      <c r="M114">
-        <f t="shared" si="1"/>
-        <v>0.25088469999594198</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115">
         <v>2.8092857145638241</v>
@@ -7536,22 +7048,18 @@
         <v>-0.32851648374120002</v>
       </c>
       <c r="K115" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L115">
-        <v>-0.21</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="1"/>
-        <v>-0.23703296748240005</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" t="s">
         <v>220</v>
-      </c>
-      <c r="B116" t="s">
-        <v>221</v>
       </c>
       <c r="C116">
         <v>0.94020172904126398</v>
@@ -7578,22 +7086,18 @@
         <v>0.32627793433485908</v>
       </c>
       <c r="K116" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L116">
         <v>-0.21</v>
       </c>
-      <c r="M116">
-        <f t="shared" si="1"/>
-        <v>1.0725558686697181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C117">
         <v>2.324999999879688</v>
@@ -7620,22 +7124,18 @@
         <v>-0.21346153831156339</v>
       </c>
       <c r="K117" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L117">
-        <v>-0.04</v>
-      </c>
-      <c r="M117">
-        <f t="shared" si="1"/>
-        <v>-0.34692307662312677</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
         <v>223</v>
-      </c>
-      <c r="B118" t="s">
-        <v>224</v>
       </c>
       <c r="C118">
         <v>0.95100864552414843</v>
@@ -7662,22 +7162,18 @@
         <v>-0.34511804243449218</v>
       </c>
       <c r="K118" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L118">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="M118">
-        <f t="shared" si="1"/>
-        <v>0.44976391513101555</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>224</v>
+      </c>
+      <c r="B119" t="s">
         <v>225</v>
-      </c>
-      <c r="B119" t="s">
-        <v>226</v>
       </c>
       <c r="C119">
         <v>1.8162650609129809</v>
@@ -7704,22 +7200,18 @@
         <v>-0.47807264098428037</v>
       </c>
       <c r="K119" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L119">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="M119">
-        <f t="shared" si="1"/>
-        <v>0.18385471803143916</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C120">
         <v>1.0233433736274149</v>
@@ -7746,22 +7238,18 @@
         <v>-0.53354745515030499</v>
       </c>
       <c r="K120" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L120">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="M120">
-        <f t="shared" si="1"/>
-        <v>7.2905089699389913E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C121">
         <v>1.6987951804740229</v>
@@ -7788,22 +7276,18 @@
         <v>-0.59238118639730564</v>
       </c>
       <c r="K121" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L121">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="M121">
-        <f t="shared" si="1"/>
-        <v>-0.90476237279461125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" t="s">
         <v>229</v>
-      </c>
-      <c r="B122" t="s">
-        <v>230</v>
       </c>
       <c r="C122">
         <v>0.81700288178359581</v>
@@ -7830,22 +7314,18 @@
         <v>0.18860721648273909</v>
       </c>
       <c r="K122" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L122">
-        <v>-1.97</v>
-      </c>
-      <c r="M122">
-        <f t="shared" si="1"/>
-        <v>4.3172144329654785</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
         <v>231</v>
-      </c>
-      <c r="B123" t="s">
-        <v>232</v>
       </c>
       <c r="C123">
         <v>0.57642857146474702</v>
@@ -7872,22 +7352,18 @@
         <v>-0.5187362637783719</v>
       </c>
       <c r="K123" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L123">
-        <v>-2.0299999999999998</v>
-      </c>
-      <c r="M123">
-        <f t="shared" si="1"/>
-        <v>3.0225274724432558</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" t="s">
         <v>233</v>
-      </c>
-      <c r="B124" t="s">
-        <v>234</v>
       </c>
       <c r="C124">
         <v>1.229827089141416</v>
@@ -7914,22 +7390,18 @@
         <v>-0.99420296578015777</v>
       </c>
       <c r="K124" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L124">
-        <v>-2.23</v>
-      </c>
-      <c r="M124">
-        <f t="shared" si="1"/>
-        <v>2.4715940684396847</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" t="s">
         <v>235</v>
-      </c>
-      <c r="B125" t="s">
-        <v>236</v>
       </c>
       <c r="C125">
         <v>0.74135446686570072</v>
@@ -7956,22 +7428,18 @@
         <v>-0.45523945978239438</v>
       </c>
       <c r="K125" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L125">
-        <v>0.06</v>
-      </c>
-      <c r="M125">
-        <f t="shared" si="1"/>
-        <v>-1.0304789195647888</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>236</v>
+      </c>
+      <c r="B126" t="s">
         <v>237</v>
-      </c>
-      <c r="B126" t="s">
-        <v>238</v>
       </c>
       <c r="C126">
         <v>0.44092219016709022</v>
@@ -7998,22 +7466,18 @@
         <v>-0.4198843220035674</v>
       </c>
       <c r="K126" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L126">
         <v>0.06</v>
       </c>
-      <c r="M126">
-        <f t="shared" si="1"/>
-        <v>-0.9597686440071348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C127">
         <v>0.67071428576617553</v>
@@ -8040,22 +7504,18 @@
         <v>-0.42840659345255061</v>
       </c>
       <c r="K127" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L127">
         <v>0.06</v>
       </c>
-      <c r="M127">
-        <f t="shared" si="1"/>
-        <v>-0.97681318690510122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C128">
         <v>0.16928571423840769</v>
@@ -8082,22 +7542,18 @@
         <v>-0.24428571423069539</v>
       </c>
       <c r="K128" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L128">
-        <v>0.84</v>
-      </c>
-      <c r="M128">
-        <f t="shared" si="1"/>
-        <v>-2.1685714284613908</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>240</v>
+      </c>
+      <c r="B129" t="s">
         <v>241</v>
-      </c>
-      <c r="B129" t="s">
-        <v>242</v>
       </c>
       <c r="C129">
         <v>0.41930835731689531</v>
@@ -8124,22 +7580,18 @@
         <v>-0.32253416377504007</v>
       </c>
       <c r="K129" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L129">
-        <v>1.31</v>
-      </c>
-      <c r="M129">
-        <f t="shared" si="1"/>
-        <v>-3.2650683275500803</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>242</v>
+      </c>
+      <c r="B130" t="s">
         <v>243</v>
-      </c>
-      <c r="B130" t="s">
-        <v>244</v>
       </c>
       <c r="C130">
         <v>0.56024096391727496</v>
@@ -8166,22 +7618,18 @@
         <v>-0.39406020591014501</v>
       </c>
       <c r="K130" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L130">
-        <v>-1.47</v>
-      </c>
-      <c r="M130">
-        <f t="shared" si="1"/>
-        <v>2.1518795881797099</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>244</v>
+      </c>
+      <c r="B131" t="s">
         <v>245</v>
-      </c>
-      <c r="B131" t="s">
-        <v>246</v>
       </c>
       <c r="C131">
         <v>4.283132530803778</v>
@@ -8208,22 +7656,18 @@
         <v>-3.7496048339037391</v>
       </c>
       <c r="K131" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L131">
         <v>-1.47</v>
       </c>
-      <c r="M131">
-        <f t="shared" ref="M131:M194" si="2">(J131-L131)*2</f>
-        <v>-4.5592096678074778</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C132">
         <v>1.1549999999919791</v>
@@ -8250,22 +7694,18 @@
         <v>0.81807692306714652</v>
       </c>
       <c r="K132" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L132">
         <v>-1.47</v>
       </c>
-      <c r="M132">
-        <f t="shared" si="2"/>
-        <v>4.576153846134293</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C133">
         <v>1.3564285716572471</v>
@@ -8292,22 +7732,18 @@
         <v>0.5820329668517521</v>
       </c>
       <c r="K133" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L133">
-        <v>2.37</v>
-      </c>
-      <c r="M133">
-        <f t="shared" si="2"/>
-        <v>-3.575934066296496</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" t="s">
         <v>249</v>
-      </c>
-      <c r="B134" t="s">
-        <v>250</v>
       </c>
       <c r="C134">
         <v>1.4457831328066411</v>
@@ -8334,22 +7770,18 @@
         <v>1.064420947780875</v>
       </c>
       <c r="K134" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L134">
-        <v>1.98</v>
-      </c>
-      <c r="M134">
-        <f t="shared" si="2"/>
-        <v>-1.8311581044382499</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" t="s">
         <v>251</v>
-      </c>
-      <c r="B135" t="s">
-        <v>252</v>
       </c>
       <c r="C135">
         <v>1.1430722892808789</v>
@@ -8376,22 +7808,18 @@
         <v>-1.024996487538971</v>
       </c>
       <c r="K135" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L135">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M135">
-        <f t="shared" si="2"/>
-        <v>-2.1899929750779421</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" t="s">
         <v>253</v>
-      </c>
-      <c r="B136" t="s">
-        <v>254</v>
       </c>
       <c r="C136">
         <v>2.143825301703556</v>
@@ -8418,22 +7846,18 @@
         <v>0.74684525188835549</v>
       </c>
       <c r="K136" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L136">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M136">
-        <f t="shared" si="2"/>
-        <v>1.3536905037767109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B137" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C137">
         <v>1.969879518554744</v>
@@ -8460,22 +7884,18 @@
         <v>0.82458112283410512</v>
       </c>
       <c r="K137" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L137">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M137">
-        <f t="shared" si="2"/>
-        <v>1.5091622456682101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C138">
         <v>2.9329210275132578</v>
@@ -8502,22 +7922,18 @@
         <v>-1.416371378623708</v>
       </c>
       <c r="K138" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L138">
-        <v>-2.4300000000000002</v>
-      </c>
-      <c r="M138">
-        <f t="shared" si="2"/>
-        <v>2.0272572427525843</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>256</v>
+      </c>
+      <c r="B139" t="s">
         <v>257</v>
-      </c>
-      <c r="B139" t="s">
-        <v>258</v>
       </c>
       <c r="C139">
         <v>2.1289625358019819</v>
@@ -8544,22 +7960,18 @@
         <v>-1.283240235651316</v>
       </c>
       <c r="K139" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L139">
-        <v>-1.37</v>
-      </c>
-      <c r="M139">
-        <f t="shared" si="2"/>
-        <v>0.17351952869736831</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" t="s">
         <v>259</v>
-      </c>
-      <c r="B140" t="s">
-        <v>260</v>
       </c>
       <c r="C140">
         <v>0.9769452448981526</v>
@@ -8586,22 +7998,18 @@
         <v>-0.65296207519205163</v>
       </c>
       <c r="K140" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L140">
         <v>-1.37</v>
       </c>
-      <c r="M140">
-        <f t="shared" si="2"/>
-        <v>1.434075849615897</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C141">
         <v>1.814999999987396</v>
@@ -8628,22 +8036,18 @@
         <v>-1.157307692301021</v>
       </c>
       <c r="K141" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L141">
-        <v>-2.0299999999999998</v>
-      </c>
-      <c r="M141">
-        <f t="shared" si="2"/>
-        <v>1.7453846153979575</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" t="s">
         <v>262</v>
-      </c>
-      <c r="B142" t="s">
-        <v>263</v>
       </c>
       <c r="C142">
         <v>0.80619596541628535</v>
@@ -8670,22 +8074,18 @@
         <v>-0.17505992057809941</v>
       </c>
       <c r="K142" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L142">
-        <v>1.19</v>
-      </c>
-      <c r="M142">
-        <f t="shared" si="2"/>
-        <v>-2.7301198411561987</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" t="s">
         <v>264</v>
-      </c>
-      <c r="B143" t="s">
-        <v>265</v>
       </c>
       <c r="C143">
         <v>0.1188760807338588</v>
@@ -8712,22 +8112,18 @@
         <v>1.9973849130542131E-2</v>
       </c>
       <c r="K143" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L143">
-        <v>0.6</v>
-      </c>
-      <c r="M143">
-        <f t="shared" si="2"/>
-        <v>-1.1600523017389157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>265</v>
+      </c>
+      <c r="B144" t="s">
         <v>266</v>
-      </c>
-      <c r="B144" t="s">
-        <v>267</v>
       </c>
       <c r="C144">
         <v>3.8742857140355951</v>
@@ -8754,22 +8150,18 @@
         <v>-0.43582417444686872</v>
       </c>
       <c r="K144" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L144">
         <v>0.6</v>
       </c>
-      <c r="M144">
-        <f t="shared" si="2"/>
-        <v>-2.0716483488937376</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C145">
         <v>1.442142857594152</v>
@@ -8796,22 +8188,18 @@
         <v>1.136703296017666</v>
       </c>
       <c r="K145" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L145">
-        <v>-0.3</v>
-      </c>
-      <c r="M145">
-        <f t="shared" si="2"/>
-        <v>2.873406592035332</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>268</v>
+      </c>
+      <c r="B146" t="s">
         <v>269</v>
-      </c>
-      <c r="B146" t="s">
-        <v>270</v>
       </c>
       <c r="C146">
         <v>1.6512968301247251</v>
@@ -8838,22 +8226,18 @@
         <v>0.71756712526207767</v>
       </c>
       <c r="K146" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L146">
         <v>-0.3</v>
       </c>
-      <c r="M146">
-        <f t="shared" si="2"/>
-        <v>2.0351342505241554</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C147">
         <v>2.582853026002796</v>
@@ -8880,22 +8264,18 @@
         <v>1.0987739016574849</v>
       </c>
       <c r="K147" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L147">
-        <v>-0.19</v>
-      </c>
-      <c r="M147">
-        <f t="shared" si="2"/>
-        <v>2.5775478033149697</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>271</v>
+      </c>
+      <c r="B148" t="s">
         <v>272</v>
-      </c>
-      <c r="B148" t="s">
-        <v>273</v>
       </c>
       <c r="C148">
         <v>1.1417697430262899E-2</v>
@@ -8922,22 +8302,18 @@
         <v>-1.1417697430262899E-2</v>
       </c>
       <c r="K148" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L148">
-        <v>-0.76</v>
-      </c>
-      <c r="M148">
-        <f t="shared" si="2"/>
-        <v>1.4971646051394742</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>273</v>
+      </c>
+      <c r="B149" t="s">
         <v>274</v>
-      </c>
-      <c r="B149" t="s">
-        <v>275</v>
       </c>
       <c r="C149">
         <v>0.19201807235419349</v>
@@ -8964,22 +8340,18 @@
         <v>-0.13953993824667871</v>
       </c>
       <c r="K149" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L149">
-        <v>-0.75</v>
-      </c>
-      <c r="M149">
-        <f t="shared" si="2"/>
-        <v>1.2209201235066427</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>275</v>
+      </c>
+      <c r="B150" t="s">
         <v>276</v>
-      </c>
-      <c r="B150" t="s">
-        <v>277</v>
       </c>
       <c r="C150">
         <v>0.49927953887417381</v>
@@ -9006,22 +8378,18 @@
         <v>-0.26786298898767807</v>
       </c>
       <c r="K150" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L150">
-        <v>-2.57</v>
-      </c>
-      <c r="M150">
-        <f t="shared" si="2"/>
-        <v>4.6042740220246436</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" t="s">
         <v>278</v>
-      </c>
-      <c r="B151" t="s">
-        <v>279</v>
       </c>
       <c r="C151">
         <v>1.850150603022076</v>
@@ -9048,22 +8416,18 @@
         <v>-1.7801797575453899</v>
       </c>
       <c r="K151" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L151">
-        <v>-1.9</v>
-      </c>
-      <c r="M151">
-        <f t="shared" si="2"/>
-        <v>0.23964048490921996</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>279</v>
+      </c>
+      <c r="B152" t="s">
         <v>280</v>
-      </c>
-      <c r="B152" t="s">
-        <v>281</v>
       </c>
       <c r="C152">
         <v>1.701054216775691</v>
@@ -9090,22 +8454,18 @@
         <v>-1.565485703664611</v>
       </c>
       <c r="K152" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L152">
-        <v>-1.91</v>
-      </c>
-      <c r="M152">
-        <f t="shared" si="2"/>
-        <v>0.68902859267077776</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>281</v>
+      </c>
+      <c r="B153" t="s">
         <v>282</v>
-      </c>
-      <c r="B153" t="s">
-        <v>283</v>
       </c>
       <c r="C153">
         <v>1.969879518554744</v>
@@ -9132,22 +8492,18 @@
         <v>-1.7162352036082189</v>
       </c>
       <c r="K153" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L153">
-        <v>-0.59</v>
-      </c>
-      <c r="M153">
-        <f t="shared" si="2"/>
-        <v>-2.2524704072164381</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>283</v>
+      </c>
+      <c r="B154" t="s">
         <v>284</v>
-      </c>
-      <c r="B154" t="s">
-        <v>285</v>
       </c>
       <c r="C154">
         <v>1.5237752155342299</v>
@@ -9174,22 +8530,18 @@
         <v>-0.64859989993528311</v>
       </c>
       <c r="K154" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L154">
         <v>-0.59</v>
       </c>
-      <c r="M154">
-        <f t="shared" si="2"/>
-        <v>-0.11719979987056628</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C155">
         <v>1.7961095098858659</v>
@@ -9216,22 +8568,18 @@
         <v>-0.60536617198032094</v>
       </c>
       <c r="K155" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L155">
         <v>-0.59</v>
       </c>
-      <c r="M155">
-        <f t="shared" si="2"/>
-        <v>-3.073234396064195E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C156">
         <v>1.912824207300033</v>
@@ -9258,22 +8606,18 @@
         <v>-0.59164608672709962</v>
       </c>
       <c r="K156" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L156">
         <v>-0.59</v>
       </c>
-      <c r="M156">
-        <f t="shared" si="2"/>
-        <v>-3.2921734541992986E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C157">
         <v>1.594285713843095</v>
@@ -9300,22 +8644,18 @@
         <v>-0.18659340623384349</v>
       </c>
       <c r="K157" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L157">
         <v>-0.59</v>
       </c>
-      <c r="M157">
-        <f t="shared" si="2"/>
-        <v>0.80681318753231301</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C158">
         <v>4.0285714287220236</v>
@@ -9342,22 +8682,18 @@
         <v>-3.993956044110198</v>
       </c>
       <c r="K158" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L158">
-        <v>-1.9</v>
-      </c>
-      <c r="M158">
-        <f t="shared" si="2"/>
-        <v>-4.1879120882203962</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" t="s">
         <v>290</v>
-      </c>
-      <c r="B159" t="s">
-        <v>291</v>
       </c>
       <c r="C159">
         <v>1.00720461091154</v>
@@ -9384,19 +8720,15 @@
         <v>-3.525510179323732E-2</v>
       </c>
       <c r="L159">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="M159">
-        <f t="shared" si="2"/>
-        <v>2.1894897964135254</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B160" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C160">
         <v>1.757204610362564</v>
@@ -9423,19 +8755,15 @@
         <v>-0.1372887618320591</v>
       </c>
       <c r="L160">
-        <v>-1.05</v>
-      </c>
-      <c r="M160">
-        <f t="shared" si="2"/>
-        <v>1.8254224763358819</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B161" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C161">
         <v>1.2471181554678019</v>
@@ -9462,19 +8790,15 @@
         <v>-0.16156415825612649</v>
       </c>
       <c r="L161">
-        <v>-1.81</v>
-      </c>
-      <c r="M161">
-        <f t="shared" si="2"/>
-        <v>3.2968716834877472</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B162" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C162">
         <v>4.9711815555448208E-2</v>
@@ -9501,19 +8825,15 @@
         <v>1.760936256062496E-2</v>
       </c>
       <c r="L162">
-        <v>-2.4700000000000002</v>
-      </c>
-      <c r="M162">
-        <f t="shared" si="2"/>
-        <v>4.9752187251212501</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B163" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C163">
         <v>2.5936599420233849E-2</v>
@@ -9540,19 +8860,15 @@
         <v>0.12132847770867621</v>
       </c>
       <c r="L163">
-        <v>-3.08</v>
-      </c>
-      <c r="M163">
-        <f t="shared" si="2"/>
-        <v>6.4026569554173527</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B164" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C164">
         <v>0.50144092219386549</v>
@@ -9579,19 +8895,15 @@
         <v>-0.24057135708407729</v>
       </c>
       <c r="L164">
-        <v>-0.32</v>
-      </c>
-      <c r="M164">
-        <f t="shared" si="2"/>
-        <v>0.15885728583184544</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B165" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C165">
         <v>1.0459337350737441</v>
@@ -9618,19 +8930,15 @@
         <v>-2.698329784288411E-2</v>
       </c>
       <c r="L165">
-        <v>-0.06</v>
-      </c>
-      <c r="M165">
-        <f t="shared" si="2"/>
-        <v>6.6033404314231769E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C166">
         <v>1.8772590362261701</v>
@@ -9657,19 +8965,15 @@
         <v>-5.3643875966649317E-2</v>
       </c>
       <c r="L166">
-        <v>0.25</v>
-      </c>
-      <c r="M166">
-        <f t="shared" si="2"/>
-        <v>-0.60728775193329865</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B167" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C167">
         <v>1.518072289628166</v>
@@ -9696,19 +9000,15 @@
         <v>-2.6818645336136541E-2</v>
       </c>
       <c r="L167">
-        <v>-0.03</v>
-      </c>
-      <c r="M167">
-        <f t="shared" si="2"/>
-        <v>6.3627093277269162E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B168" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C168">
         <v>1.4006024091892091</v>
@@ -9735,19 +9035,15 @@
         <v>0.18686114777357071</v>
       </c>
       <c r="L168">
-        <v>0.4</v>
-      </c>
-      <c r="M168">
-        <f t="shared" si="2"/>
-        <v>-0.42627770445285862</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B169" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C169">
         <v>1.3396084338760199</v>
@@ -9774,19 +9070,15 @@
         <v>7.292800939504418E-2</v>
       </c>
       <c r="L169">
-        <v>-1.99</v>
-      </c>
-      <c r="M169">
-        <f t="shared" si="2"/>
-        <v>4.1258560187900883</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B170" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C170">
         <v>1.3079819280685909</v>
@@ -9813,19 +9105,15 @@
         <v>0.28822798448523668</v>
       </c>
       <c r="L170">
-        <v>-1.69</v>
-      </c>
-      <c r="M170">
-        <f t="shared" si="2"/>
-        <v>3.9564559689704732</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B171" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C171">
         <v>2.1483433730989341</v>
@@ -9852,19 +9140,15 @@
         <v>0.19567994962175739</v>
       </c>
       <c r="L171">
-        <v>0.35</v>
-      </c>
-      <c r="M171">
-        <f t="shared" si="2"/>
-        <v>-0.30864010075648518</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B172" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C172">
         <v>0.9487951808666093</v>
@@ -9891,19 +9175,15 @@
         <v>7.4528434276696531E-2</v>
       </c>
       <c r="L172">
-        <v>1.52</v>
-      </c>
-      <c r="M172">
-        <f t="shared" si="2"/>
-        <v>-2.890943131446607</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B173" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C173">
         <v>1.861445783322456</v>
@@ -9930,19 +9210,15 @@
         <v>1.027433327243998E-2</v>
       </c>
       <c r="L173">
-        <v>1.52</v>
-      </c>
-      <c r="M173">
-        <f t="shared" si="2"/>
-        <v>-3.0194513334551201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B174" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C174">
         <v>1.0007530121810859</v>
@@ -9969,19 +9245,15 @@
         <v>-4.7400242467697917E-2</v>
       </c>
       <c r="L174">
-        <v>-1.72</v>
-      </c>
-      <c r="M174">
-        <f t="shared" si="2"/>
-        <v>3.3451995150646043</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B175" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C175">
         <v>0.60090361456898522</v>
@@ -10008,19 +9280,15 @@
         <v>-6.7375917668946128E-2</v>
       </c>
       <c r="L175">
-        <v>-2.36</v>
-      </c>
-      <c r="M175">
-        <f t="shared" si="2"/>
-        <v>4.5852481646621079</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B176" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C176">
         <v>0.28915662656132818</v>
@@ -10047,19 +9315,15 @@
         <v>-9.2732446078142572E-3</v>
       </c>
       <c r="L176">
-        <v>0.38</v>
-      </c>
-      <c r="M176">
-        <f t="shared" si="2"/>
-        <v>-0.77854648921562852</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B177" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C177">
         <v>0.83358433745409333</v>
@@ -10086,19 +9350,15 @@
         <v>-0.17760766111015941</v>
       </c>
       <c r="L177">
-        <v>1.69</v>
-      </c>
-      <c r="M177">
-        <f t="shared" si="2"/>
-        <v>-3.7352153222203186</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B178" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C178">
         <v>0.51280120484374547</v>
@@ -10125,19 +9385,15 @@
         <v>1.635331414384766E-2</v>
       </c>
       <c r="L178">
-        <v>-2.09</v>
-      </c>
-      <c r="M178">
-        <f t="shared" si="2"/>
-        <v>4.2127066282876946</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B179" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C179">
         <v>1.662650602063261</v>
@@ -10164,19 +9420,15 @@
         <v>-0.43378762830880452</v>
       </c>
       <c r="L179">
-        <v>-2.27</v>
-      </c>
-      <c r="M179">
-        <f t="shared" si="2"/>
-        <v>3.6724247433823911</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B180" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C180">
         <v>0.71385542180062977</v>
@@ -10203,19 +9455,15 @@
         <v>7.7189222946194569E-3</v>
       </c>
       <c r="L180">
-        <v>-0.46</v>
-      </c>
-      <c r="M180">
-        <f t="shared" si="2"/>
-        <v>0.93543784458923895</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B181" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C181">
         <v>0.26882530117507519</v>
@@ -10242,19 +9490,15 @@
         <v>-4.1420053352460379E-2</v>
       </c>
       <c r="L181">
-        <v>-0.46</v>
-      </c>
-      <c r="M181">
-        <f t="shared" si="2"/>
-        <v>0.83715989329507923</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B182" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C182">
         <v>0.1942771084142694</v>
@@ -10281,19 +9525,15 @@
         <v>1.126225019688099E-2</v>
       </c>
       <c r="L182">
-        <v>-1.38</v>
-      </c>
-      <c r="M182">
-        <f t="shared" si="2"/>
-        <v>2.782524500393762</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B183" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C183">
         <v>1.9478571429031399</v>
@@ -10320,19 +9560,15 @@
         <v>-1.809395604455839</v>
       </c>
       <c r="L183">
-        <v>0.1</v>
-      </c>
-      <c r="M183">
-        <f t="shared" si="2"/>
-        <v>-3.8187912089116782</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>315</v>
+      </c>
+      <c r="B184" t="s">
         <v>316</v>
-      </c>
-      <c r="B184" t="s">
-        <v>317</v>
       </c>
       <c r="C184">
         <v>4.341579448208523</v>
@@ -10359,22 +9595,18 @@
         <v>3.3525027987374618</v>
       </c>
       <c r="K184" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L184">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="M184">
-        <f t="shared" si="2"/>
-        <v>11.105005597474925</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" t="s">
         <v>318</v>
-      </c>
-      <c r="B185" t="s">
-        <v>319</v>
       </c>
       <c r="C185">
         <v>2.6346336820179022</v>
@@ -10401,22 +9633,18 @@
         <v>2.2490172705364668</v>
       </c>
       <c r="K185" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L185">
-        <v>1.75</v>
-      </c>
-      <c r="M185">
-        <f t="shared" si="2"/>
-        <v>0.99803454107293366</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>319</v>
+      </c>
+      <c r="B186" t="s">
         <v>320</v>
-      </c>
-      <c r="B186" t="s">
-        <v>321</v>
       </c>
       <c r="C186">
         <v>-6.4285714280803569E-3</v>
@@ -10443,22 +9671,18 @@
         <v>8.1428571420368023E-2</v>
       </c>
       <c r="K186" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L186">
-        <v>0.36</v>
-      </c>
-      <c r="M186">
-        <f t="shared" si="2"/>
-        <v>-0.55714285715926393</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>321</v>
+      </c>
+      <c r="B187" t="s">
         <v>322</v>
-      </c>
-      <c r="B187" t="s">
-        <v>323</v>
       </c>
       <c r="C187">
         <v>1.965000000090521</v>
@@ -10485,22 +9709,18 @@
         <v>-1.093846153933709</v>
       </c>
       <c r="K187" t="s">
-        <v>662</v>
+        <v>753</v>
       </c>
       <c r="L187">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="M187">
-        <f t="shared" si="2"/>
-        <v>5.230769213258224E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.81</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>323</v>
+      </c>
+      <c r="B188" t="s">
         <v>324</v>
-      </c>
-      <c r="B188" t="s">
-        <v>325</v>
       </c>
       <c r="C188">
         <v>4.0290199806963907</v>
@@ -10527,22 +9747,18 @@
         <v>-2.7772647148441281</v>
       </c>
       <c r="K188" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L188">
-        <v>-0.1</v>
-      </c>
-      <c r="M188">
-        <f t="shared" si="2"/>
-        <v>-5.354529429688256</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>325</v>
+      </c>
+      <c r="B189" t="s">
         <v>326</v>
-      </c>
-      <c r="B189" t="s">
-        <v>327</v>
       </c>
       <c r="C189">
         <v>4.4999999996562491E-2</v>
@@ -10569,22 +9785,18 @@
         <v>6.461538460755023E-2</v>
       </c>
       <c r="K189" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L189">
-        <v>-0.11</v>
-      </c>
-      <c r="M189">
-        <f t="shared" si="2"/>
-        <v>0.34923076921510043</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-3.08</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>327</v>
+      </c>
+      <c r="B190" t="s">
         <v>328</v>
-      </c>
-      <c r="B190" t="s">
-        <v>329</v>
       </c>
       <c r="C190">
         <v>2.0900576362786798</v>
@@ -10611,22 +9823,18 @@
         <v>0.15678668339026031</v>
       </c>
       <c r="K190" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L190">
-        <v>-1.39</v>
-      </c>
-      <c r="M190">
-        <f t="shared" si="2"/>
-        <v>3.0935733667805203</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>329</v>
+      </c>
+      <c r="B191" t="s">
         <v>330</v>
-      </c>
-      <c r="B191" t="s">
-        <v>331</v>
       </c>
       <c r="C191">
         <v>4.1892857141375739</v>
@@ -10653,22 +9861,18 @@
         <v>-3.8489010988805088</v>
       </c>
       <c r="K191" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L191">
-        <v>-1.54</v>
-      </c>
-      <c r="M191">
-        <f t="shared" si="2"/>
-        <v>-4.6178021977610175</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>331</v>
+      </c>
+      <c r="B192" t="s">
         <v>332</v>
-      </c>
-      <c r="B192" t="s">
-        <v>333</v>
       </c>
       <c r="C192">
         <v>1.9134036146369331</v>
@@ -10695,22 +9899,18 @@
         <v>1.4408237897235701</v>
       </c>
       <c r="K192" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L192">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="M192">
-        <f t="shared" si="2"/>
-        <v>7.4416475794471397</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>333</v>
+      </c>
+      <c r="B193" t="s">
         <v>334</v>
-      </c>
-      <c r="B193" t="s">
-        <v>335</v>
       </c>
       <c r="C193">
         <v>0.63976945245822747</v>
@@ -10737,22 +9937,18 @@
         <v>-0.48408922806480831</v>
       </c>
       <c r="K193" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L193">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="M193">
-        <f t="shared" si="2"/>
-        <v>3.5918215438703829</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>335</v>
+      </c>
+      <c r="B194" t="s">
         <v>336</v>
-      </c>
-      <c r="B194" t="s">
-        <v>337</v>
       </c>
       <c r="C194">
         <v>1.843659941994491</v>
@@ -10779,22 +9975,18 @@
         <v>0.43684496772243381</v>
       </c>
       <c r="K194" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L194">
-        <v>1.97</v>
-      </c>
-      <c r="M194">
-        <f t="shared" si="2"/>
-        <v>-3.0663100645551324</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>337</v>
+      </c>
+      <c r="B195" t="s">
         <v>338</v>
-      </c>
-      <c r="B195" t="s">
-        <v>339</v>
       </c>
       <c r="C195">
         <v>1.549285714155908</v>
@@ -10821,22 +10013,18 @@
         <v>0.31994505494434478</v>
       </c>
       <c r="K195" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L195">
-        <v>0.19</v>
-      </c>
-      <c r="M195">
-        <f t="shared" ref="M195:M258" si="3">(J195-L195)*2</f>
-        <v>0.25989010988868955</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>339</v>
+      </c>
+      <c r="B196" t="s">
         <v>340</v>
-      </c>
-      <c r="B196" t="s">
-        <v>341</v>
       </c>
       <c r="C196">
         <v>4.235692770884679</v>
@@ -10863,22 +10051,18 @@
         <v>-0.37854991477741468</v>
       </c>
       <c r="K196" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L196">
-        <v>0.3</v>
-      </c>
-      <c r="M196">
-        <f t="shared" si="3"/>
-        <v>-1.3570998295548293</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>341</v>
+      </c>
+      <c r="B197" t="s">
         <v>342</v>
-      </c>
-      <c r="B197" t="s">
-        <v>343</v>
       </c>
       <c r="C197">
         <v>1.457183634331249</v>
@@ -10905,22 +10089,18 @@
         <v>0.65816240428580364</v>
       </c>
       <c r="K197" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L197">
-        <v>0.21</v>
-      </c>
-      <c r="M197">
-        <f t="shared" si="3"/>
-        <v>0.89632480857160735</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>343</v>
+      </c>
+      <c r="B198" t="s">
         <v>344</v>
-      </c>
-      <c r="B198" t="s">
-        <v>345</v>
       </c>
       <c r="C198">
         <v>2.6408132530396089</v>
@@ -10947,22 +10127,18 @@
         <v>2.305250886663806</v>
       </c>
       <c r="K198" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L198">
-        <v>0.66</v>
-      </c>
-      <c r="M198">
-        <f t="shared" si="3"/>
-        <v>3.2905017733276116</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B199" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C199">
         <v>2.530447193355966</v>
@@ -10989,22 +10165,18 @@
         <v>1.673163639875016</v>
       </c>
       <c r="K199" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L199">
-        <v>-1.01</v>
-      </c>
-      <c r="M199">
-        <f t="shared" si="3"/>
-        <v>5.3663272797500321</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>346</v>
+      </c>
+      <c r="B200" t="s">
         <v>347</v>
-      </c>
-      <c r="B200" t="s">
-        <v>348</v>
       </c>
       <c r="C200">
         <v>0.75214285711977669</v>
@@ -11031,22 +10203,18 @@
         <v>-0.54445054944882632</v>
       </c>
       <c r="K200" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L200">
-        <v>-2.16</v>
-      </c>
-      <c r="M200">
-        <f t="shared" si="3"/>
-        <v>3.2310989011023477</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>348</v>
+      </c>
+      <c r="B201" t="s">
         <v>349</v>
-      </c>
-      <c r="B201" t="s">
-        <v>350</v>
       </c>
       <c r="C201">
         <v>0.88500000003552082</v>
@@ -11073,22 +10241,18 @@
         <v>1.3880769228693579</v>
       </c>
       <c r="K201" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L201">
-        <v>-1.26</v>
-      </c>
-      <c r="M201">
-        <f t="shared" si="3"/>
-        <v>5.2961538457387158</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>350</v>
+      </c>
+      <c r="B202" t="s">
         <v>351</v>
-      </c>
-      <c r="B202" t="s">
-        <v>352</v>
       </c>
       <c r="C202">
         <v>1.8596574692517029</v>
@@ -11115,22 +10279,18 @@
         <v>1.1222883678113811</v>
       </c>
       <c r="K202" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L202">
-        <v>0.42</v>
-      </c>
-      <c r="M202">
-        <f t="shared" si="3"/>
-        <v>1.4045767356227623</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>352</v>
+      </c>
+      <c r="B203" t="s">
         <v>353</v>
-      </c>
-      <c r="B203" t="s">
-        <v>354</v>
       </c>
       <c r="C203">
         <v>2.4423631119564471</v>
@@ -11157,22 +10317,18 @@
         <v>1.2434713896285741</v>
       </c>
       <c r="K203" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L203">
-        <v>0.85</v>
-      </c>
-      <c r="M203">
-        <f t="shared" si="3"/>
-        <v>0.78694277925714817</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>354</v>
+      </c>
+      <c r="B204" t="s">
         <v>355</v>
-      </c>
-      <c r="B204" t="s">
-        <v>356</v>
       </c>
       <c r="C204">
         <v>2.2835394860525809E-2</v>
@@ -11199,22 +10355,18 @@
         <v>-4.690761150905548E-2</v>
       </c>
       <c r="K204" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L204">
-        <v>1.02</v>
-      </c>
-      <c r="M204">
-        <f t="shared" si="3"/>
-        <v>-2.1338152230181109</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.09</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>356</v>
+      </c>
+      <c r="B205" t="s">
         <v>357</v>
-      </c>
-      <c r="B205" t="s">
-        <v>358</v>
       </c>
       <c r="C205">
         <v>1.3667168670801131</v>
@@ -11241,22 +10393,18 @@
         <v>1.08341533590699E-2</v>
       </c>
       <c r="K205" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L205">
-        <v>0.39</v>
-      </c>
-      <c r="M205">
-        <f t="shared" si="3"/>
-        <v>-0.75833169328186023</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>358</v>
+      </c>
+      <c r="B206" t="s">
         <v>359</v>
-      </c>
-      <c r="B206" t="s">
-        <v>360</v>
       </c>
       <c r="C206">
         <v>2.857348702633959</v>
@@ -11283,22 +10431,18 @@
         <v>0.27729365305821568</v>
       </c>
       <c r="K206" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L206">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="M206">
-        <f t="shared" si="3"/>
-        <v>-3.9254126938835689</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B207" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C207">
         <v>5.4733587060520179</v>
@@ -11325,22 +10469,18 @@
         <v>-4.2366485756855354</v>
       </c>
       <c r="K207" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L207">
-        <v>1.65</v>
-      </c>
-      <c r="M207">
-        <f t="shared" si="3"/>
-        <v>-11.773297151371072</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>361</v>
+      </c>
+      <c r="B208" t="s">
         <v>362</v>
-      </c>
-      <c r="B208" t="s">
-        <v>363</v>
       </c>
       <c r="C208">
         <v>2.7145575642434272</v>
@@ -11367,22 +10507,18 @@
         <v>1.4629998138815379E-2</v>
       </c>
       <c r="K208" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="L208">
-        <v>1.65</v>
-      </c>
-      <c r="M208">
-        <f t="shared" si="3"/>
-        <v>-3.2707400037223691</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>363</v>
+      </c>
+      <c r="B209" t="s">
         <v>364</v>
-      </c>
-      <c r="B209" t="s">
-        <v>365</v>
       </c>
       <c r="C209">
         <v>2.9909638556389</v>
@@ -11409,22 +10545,18 @@
         <v>0.20145596900106841</v>
       </c>
       <c r="K209" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L209">
-        <v>1.33</v>
-      </c>
-      <c r="M209">
-        <f t="shared" si="3"/>
-        <v>-2.2570880619978633</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>365</v>
+      </c>
+      <c r="B210" t="s">
         <v>366</v>
-      </c>
-      <c r="B210" t="s">
-        <v>367</v>
       </c>
       <c r="C210">
         <v>0.94714285713925594</v>
@@ -11451,22 +10583,18 @@
         <v>0.40862637364480642</v>
       </c>
       <c r="K210" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L210">
-        <v>1.33</v>
-      </c>
-      <c r="M210">
-        <f t="shared" si="3"/>
-        <v>-1.8427472527103874</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>367</v>
+      </c>
+      <c r="B211" t="s">
         <v>368</v>
-      </c>
-      <c r="B211" t="s">
-        <v>369</v>
       </c>
       <c r="C211">
         <v>3.4427710845654791</v>
@@ -11493,22 +10621,18 @@
         <v>2.8108732296795158</v>
       </c>
       <c r="K211" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L211">
-        <v>1.22</v>
-      </c>
-      <c r="M211">
-        <f t="shared" si="3"/>
-        <v>3.1817464593590317</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>369</v>
+      </c>
+      <c r="B212" t="s">
         <v>370</v>
-      </c>
-      <c r="B212" t="s">
-        <v>371</v>
       </c>
       <c r="C212">
         <v>2.7255043223286721</v>
@@ -11535,22 +10659,18 @@
         <v>1.4063329837803591</v>
       </c>
       <c r="K212" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L212">
-        <v>1.22</v>
-      </c>
-      <c r="M212">
-        <f t="shared" si="3"/>
-        <v>0.37266596756071824</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>371</v>
+      </c>
+      <c r="B213" t="s">
         <v>372</v>
-      </c>
-      <c r="B213" t="s">
-        <v>373</v>
       </c>
       <c r="C213">
         <v>1.0115273774353499</v>
@@ -11577,22 +10697,18 @@
         <v>-0.8306017112259042</v>
       </c>
       <c r="K213" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L213">
-        <v>0.4</v>
-      </c>
-      <c r="M213">
-        <f t="shared" si="3"/>
-        <v>-2.4612034224518085</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>373</v>
+      </c>
+      <c r="B214" t="s">
         <v>374</v>
-      </c>
-      <c r="B214" t="s">
-        <v>375</v>
       </c>
       <c r="C214">
         <v>0.65286144588346207</v>
@@ -11619,22 +10735,18 @@
         <v>0.53664292736051111</v>
       </c>
       <c r="K214" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L214">
-        <v>-2.29</v>
-      </c>
-      <c r="M214">
-        <f t="shared" si="3"/>
-        <v>5.6532858547210223</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" t="s">
         <v>376</v>
-      </c>
-      <c r="B215" t="s">
-        <v>377</v>
       </c>
       <c r="C215">
         <v>1.438629876243652</v>
@@ -11661,22 +10773,18 @@
         <v>0.7970772459378479</v>
       </c>
       <c r="K215" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L215">
-        <v>-2.29</v>
-      </c>
-      <c r="M215">
-        <f t="shared" si="3"/>
-        <v>6.1741544918756954</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>377</v>
+      </c>
+      <c r="B216" t="s">
         <v>378</v>
-      </c>
-      <c r="B216" t="s">
-        <v>379</v>
       </c>
       <c r="C216">
         <v>0.46987951813195927</v>
@@ -11703,22 +10811,18 @@
         <v>-0.43052091755132332</v>
       </c>
       <c r="K216" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L216">
-        <v>-2.13</v>
-      </c>
-      <c r="M216">
-        <f t="shared" si="3"/>
-        <v>3.398958164897353</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>379</v>
+      </c>
+      <c r="B217" t="s">
         <v>380</v>
-      </c>
-      <c r="B217" t="s">
-        <v>381</v>
       </c>
       <c r="C217">
         <v>0.82454819285140257</v>
@@ -11745,22 +10849,18 @@
         <v>-0.73708463600554475</v>
       </c>
       <c r="K217" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L217">
-        <v>-0.22</v>
-      </c>
-      <c r="M217">
-        <f t="shared" si="3"/>
-        <v>-1.0341692720110895</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.54</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>381</v>
+      </c>
+      <c r="B218" t="s">
         <v>382</v>
-      </c>
-      <c r="B218" t="s">
-        <v>383</v>
       </c>
       <c r="C218">
         <v>0.46987951813195927</v>
@@ -11787,22 +10887,18 @@
         <v>-0.43926727323590908</v>
       </c>
       <c r="K218" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L218">
-        <v>0.35</v>
-      </c>
-      <c r="M218">
-        <f t="shared" si="3"/>
-        <v>-1.5785345464718181</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B219" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C219">
         <v>0.28915662656132818</v>
@@ -11829,22 +10925,18 @@
         <v>-0.22793213676922769</v>
       </c>
       <c r="K219" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L219">
-        <v>0.91</v>
-      </c>
-      <c r="M219">
-        <f t="shared" si="3"/>
-        <v>-2.2758642735384553</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>384</v>
+      </c>
+      <c r="B220" t="s">
         <v>385</v>
-      </c>
-      <c r="B220" t="s">
-        <v>386</v>
       </c>
       <c r="C220">
         <v>7.7069457669537836E-2</v>
@@ -11871,22 +10963,18 @@
         <v>0.1185173026802155</v>
       </c>
       <c r="K220" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L220">
-        <v>-2.46</v>
-      </c>
-      <c r="M220">
-        <f t="shared" si="3"/>
-        <v>5.1570346053604306</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>386</v>
+      </c>
+      <c r="B221" t="s">
         <v>387</v>
-      </c>
-      <c r="B221" t="s">
-        <v>388</v>
       </c>
       <c r="C221">
         <v>0.23991354467183529</v>
@@ -11913,22 +11001,18 @@
         <v>-0.1852150874525258</v>
       </c>
       <c r="K221" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L221">
-        <v>2.59</v>
-      </c>
-      <c r="M221">
-        <f t="shared" si="3"/>
-        <v>-5.5504301749050509</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>388</v>
+      </c>
+      <c r="B222" t="s">
         <v>389</v>
-      </c>
-      <c r="B222" t="s">
-        <v>390</v>
       </c>
       <c r="C222">
         <v>2.2838855427432732</v>
@@ -11955,22 +11039,18 @@
         <v>0.9391465265822867</v>
       </c>
       <c r="K222" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L222">
-        <v>-0.53</v>
-      </c>
-      <c r="M222">
-        <f t="shared" si="3"/>
-        <v>2.9382930531645735</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>390</v>
+      </c>
+      <c r="B223" t="s">
         <v>391</v>
-      </c>
-      <c r="B223" t="s">
-        <v>392</v>
       </c>
       <c r="C223">
         <v>3.449548193470481</v>
@@ -11997,22 +11077,18 @@
         <v>2.9484109902483251</v>
       </c>
       <c r="K223" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L223">
-        <v>-1.79</v>
-      </c>
-      <c r="M223">
-        <f t="shared" si="3"/>
-        <v>9.4768219804966503</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>392</v>
+      </c>
+      <c r="B224" t="s">
         <v>393</v>
-      </c>
-      <c r="B224" t="s">
-        <v>394</v>
       </c>
       <c r="C224">
         <v>1.67126546153026</v>
@@ -12039,22 +11115,18 @@
         <v>1.006768640135969</v>
       </c>
       <c r="K224" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L224">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M224">
-        <f t="shared" si="3"/>
-        <v>0.87353728027193811</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>394</v>
+      </c>
+      <c r="B225" t="s">
         <v>395</v>
-      </c>
-      <c r="B225" t="s">
-        <v>396</v>
       </c>
       <c r="C225">
         <v>1.662702188625458</v>
@@ -12081,22 +11153,18 @@
         <v>0.68433893524978306</v>
       </c>
       <c r="K225" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L225">
-        <v>-1.97</v>
-      </c>
-      <c r="M225">
-        <f t="shared" si="3"/>
-        <v>5.3086778704995661</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>396</v>
+      </c>
+      <c r="B226" t="s">
         <v>397</v>
-      </c>
-      <c r="B226" t="s">
-        <v>398</v>
       </c>
       <c r="C226">
         <v>2.8444338723829299</v>
@@ -12123,22 +11191,18 @@
         <v>2.3220656261456409</v>
       </c>
       <c r="K226" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L226">
-        <v>-1.97</v>
-      </c>
-      <c r="M226">
-        <f t="shared" si="3"/>
-        <v>8.5841312522912823</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>398</v>
+      </c>
+      <c r="B227" t="s">
         <v>399</v>
-      </c>
-      <c r="B227" t="s">
-        <v>400</v>
       </c>
       <c r="C227">
         <v>1.130403458169208</v>
@@ -12165,22 +11229,18 @@
         <v>0.31279429789659963</v>
       </c>
       <c r="K227" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L227">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="M227">
-        <f t="shared" si="3"/>
-        <v>-1.6344114042068005</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>400</v>
+      </c>
+      <c r="B228" t="s">
         <v>401</v>
-      </c>
-      <c r="B228" t="s">
-        <v>402</v>
       </c>
       <c r="C228">
         <v>1.193149381218261</v>
@@ -12207,22 +11267,18 @@
         <v>0.76271822227927166</v>
       </c>
       <c r="K228" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L228">
-        <v>2.06</v>
-      </c>
-      <c r="M228">
-        <f t="shared" si="3"/>
-        <v>-2.5945635554414568</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>402</v>
+      </c>
+      <c r="B229" t="s">
         <v>403</v>
-      </c>
-      <c r="B229" t="s">
-        <v>404</v>
       </c>
       <c r="C229">
         <v>2.805899143929742</v>
@@ -12249,22 +11305,18 @@
         <v>2.769828037108955</v>
       </c>
       <c r="K229" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L229">
-        <v>2.06</v>
-      </c>
-      <c r="M229">
-        <f t="shared" si="3"/>
-        <v>1.4196560742179098</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>404</v>
+      </c>
+      <c r="B230" t="s">
         <v>405</v>
-      </c>
-      <c r="B230" t="s">
-        <v>406</v>
       </c>
       <c r="C230">
         <v>3.596541786642264</v>
@@ -12291,22 +11343,18 @@
         <v>2.512855126851405</v>
       </c>
       <c r="K230" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L230">
-        <v>2.06</v>
-      </c>
-      <c r="M230">
-        <f t="shared" si="3"/>
-        <v>0.90571025370280989</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>406</v>
+      </c>
+      <c r="B231" t="s">
         <v>407</v>
-      </c>
-      <c r="B231" t="s">
-        <v>408</v>
       </c>
       <c r="C231">
         <v>3.8363463369041271</v>
@@ -12333,22 +11381,18 @@
         <v>1.778498197298636</v>
       </c>
       <c r="K231" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L231">
-        <v>0.38</v>
-      </c>
-      <c r="M231">
-        <f t="shared" si="3"/>
-        <v>2.7969963945972722</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>408</v>
+      </c>
+      <c r="B232" t="s">
         <v>409</v>
-      </c>
-      <c r="B232" t="s">
-        <v>410</v>
       </c>
       <c r="C232">
         <v>2.3705994289049142</v>
@@ -12375,22 +11419,18 @@
         <v>1.7969030784522371</v>
       </c>
       <c r="K232" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L232">
-        <v>0.38</v>
-      </c>
-      <c r="M232">
-        <f t="shared" si="3"/>
-        <v>2.8338061569044743</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>410</v>
+      </c>
+      <c r="B233" t="s">
         <v>411</v>
-      </c>
-      <c r="B233" t="s">
-        <v>412</v>
       </c>
       <c r="C233">
         <v>4.2968299711272664</v>
@@ -12417,22 +11457,18 @@
         <v>3.411444923523093</v>
       </c>
       <c r="K233" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L233">
-        <v>0.18</v>
-      </c>
-      <c r="M233">
-        <f t="shared" si="3"/>
-        <v>6.4628898470461857</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B234" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C234">
         <v>3.7929216871647702</v>
@@ -12459,22 +11495,18 @@
         <v>2.657515629632639</v>
       </c>
       <c r="K234" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L234">
-        <v>0.18</v>
-      </c>
-      <c r="M234">
-        <f t="shared" si="3"/>
-        <v>4.9550312592652777</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>413</v>
+      </c>
+      <c r="B235" t="s">
         <v>414</v>
-      </c>
-      <c r="B235" t="s">
-        <v>415</v>
       </c>
       <c r="C235">
         <v>1.567078972105161</v>
@@ -12501,22 +11533,18 @@
         <v>1.240343294996221</v>
       </c>
       <c r="K235" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L235">
-        <v>0.18</v>
-      </c>
-      <c r="M235">
-        <f t="shared" si="3"/>
-        <v>2.1206865899924421</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B236" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C236">
         <v>2.0851569931483409</v>
@@ -12543,22 +11571,18 @@
         <v>1.5437296662635289</v>
       </c>
       <c r="K236" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L236">
-        <v>0.18</v>
-      </c>
-      <c r="M236">
-        <f t="shared" si="3"/>
-        <v>2.727459332527058</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>416</v>
+      </c>
+      <c r="B237" t="s">
         <v>417</v>
-      </c>
-      <c r="B237" t="s">
-        <v>418</v>
       </c>
       <c r="C237">
         <v>2.3256484145422802</v>
@@ -12585,22 +11609,18 @@
         <v>1.700999552447799</v>
       </c>
       <c r="K237" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L237">
-        <v>1.78</v>
-      </c>
-      <c r="M237">
-        <f t="shared" si="3"/>
-        <v>-0.15800089510440207</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B238" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C238">
         <v>3.393072289552669</v>
@@ -12627,22 +11647,18 @@
         <v>3.1448285854936588</v>
       </c>
       <c r="K238" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L238">
-        <v>-2.08</v>
-      </c>
-      <c r="M238">
-        <f t="shared" si="3"/>
-        <v>10.449657170987319</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>419</v>
+      </c>
+      <c r="B239" t="s">
         <v>420</v>
-      </c>
-      <c r="B239" t="s">
-        <v>421</v>
       </c>
       <c r="C239">
         <v>3.7228915666449121</v>
@@ -12669,22 +11685,18 @@
         <v>3.3747760713730708</v>
       </c>
       <c r="K239" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L239">
-        <v>-2.08</v>
-      </c>
-      <c r="M239">
-        <f t="shared" si="3"/>
-        <v>10.909552142746142</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>421</v>
+      </c>
+      <c r="B240" t="s">
         <v>422</v>
-      </c>
-      <c r="B240" t="s">
-        <v>423</v>
       </c>
       <c r="C240">
         <v>1.7959337354059319</v>
@@ -12711,22 +11723,18 @@
         <v>0.91980970402657691</v>
       </c>
       <c r="K240" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L240">
-        <v>-2.08</v>
-      </c>
-      <c r="M240">
-        <f t="shared" si="3"/>
-        <v>5.999619408053154</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B241" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C241">
         <v>1.7213855422827391</v>
@@ -12753,22 +11761,18 @@
         <v>0.82817713928294623</v>
       </c>
       <c r="K241" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L241">
-        <v>-2.08</v>
-      </c>
-      <c r="M241">
-        <f t="shared" si="3"/>
-        <v>5.8163542785658926</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>424</v>
+      </c>
+      <c r="B242" t="s">
         <v>425</v>
-      </c>
-      <c r="B242" t="s">
-        <v>426</v>
       </c>
       <c r="C242">
         <v>1.3681556197525</v>
@@ -12795,22 +11799,18 @@
         <v>1.2615779009690791</v>
       </c>
       <c r="K242" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L242">
-        <v>-2.08</v>
-      </c>
-      <c r="M242">
-        <f t="shared" si="3"/>
-        <v>6.6831558019381578</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>426</v>
+      </c>
+      <c r="B243" t="s">
         <v>427</v>
-      </c>
-      <c r="B243" t="s">
-        <v>428</v>
       </c>
       <c r="C243">
         <v>3.184110370887463</v>
@@ -12837,22 +11837,18 @@
         <v>2.6142848151477112</v>
       </c>
       <c r="K243" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L243">
-        <v>-2.08</v>
-      </c>
-      <c r="M243">
-        <f t="shared" si="3"/>
-        <v>9.3885696302954216</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>428</v>
+      </c>
+      <c r="B244" t="s">
         <v>429</v>
-      </c>
-      <c r="B244" t="s">
-        <v>430</v>
       </c>
       <c r="C244">
         <v>1.8439581349569329</v>
@@ -12879,22 +11875,18 @@
         <v>1.6134139817834701</v>
       </c>
       <c r="K244" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L244">
-        <v>-2.08</v>
-      </c>
-      <c r="M244">
-        <f t="shared" si="3"/>
-        <v>7.3868279635669403</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>430</v>
+      </c>
+      <c r="B245" t="s">
         <v>431</v>
-      </c>
-      <c r="B245" t="s">
-        <v>432</v>
       </c>
       <c r="C245">
         <v>2.5612391928058802</v>
@@ -12921,22 +11913,18 @@
         <v>1.8525055482616239</v>
       </c>
       <c r="K245" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L245">
-        <v>-2.08</v>
-      </c>
-      <c r="M245">
-        <f t="shared" si="3"/>
-        <v>7.865011096523248</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>432</v>
+      </c>
+      <c r="B246" t="s">
         <v>433</v>
-      </c>
-      <c r="B246" t="s">
-        <v>434</v>
       </c>
       <c r="C246">
         <v>5.5256024097478891</v>
@@ -12963,22 +11951,18 @@
         <v>0.605592925754741</v>
       </c>
       <c r="K246" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="L246">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="M246">
-        <f t="shared" si="3"/>
-        <v>3.4711858515094818</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>434</v>
+      </c>
+      <c r="B247" t="s">
         <v>435</v>
-      </c>
-      <c r="B247" t="s">
-        <v>436</v>
       </c>
       <c r="C247">
         <v>4.2876506034071129</v>
@@ -13005,22 +11989,18 @@
         <v>3.5534572680345038</v>
       </c>
       <c r="K247" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L247">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="M247">
-        <f t="shared" si="3"/>
-        <v>9.3669145360690074</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>436</v>
+      </c>
+      <c r="B248" t="s">
         <v>437</v>
-      </c>
-      <c r="B248" t="s">
-        <v>438</v>
       </c>
       <c r="C248">
         <v>1.514272121635196</v>
@@ -13047,22 +12027,18 @@
         <v>0.94410300393378588</v>
       </c>
       <c r="K248" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L248">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M248">
-        <f t="shared" si="3"/>
-        <v>0.72820600786757184</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>438</v>
+      </c>
+      <c r="B249" t="s">
         <v>439</v>
-      </c>
-      <c r="B249" t="s">
-        <v>440</v>
       </c>
       <c r="C249">
         <v>3.9962349398193431</v>
@@ -13089,22 +12065,18 @@
         <v>3.5343773042816391</v>
       </c>
       <c r="K249" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L249">
-        <v>0.72</v>
-      </c>
-      <c r="M249">
-        <f t="shared" si="3"/>
-        <v>5.6287546085632787</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>440</v>
+      </c>
+      <c r="B250" t="s">
         <v>441</v>
-      </c>
-      <c r="B250" t="s">
-        <v>442</v>
       </c>
       <c r="C250">
         <v>2.1051379635139318</v>
@@ -13131,22 +12103,18 @@
         <v>1.5809202111944229</v>
       </c>
       <c r="K250" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L250">
-        <v>0.72</v>
-      </c>
-      <c r="M250">
-        <f t="shared" si="3"/>
-        <v>1.7218404223888459</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>442</v>
+      </c>
+      <c r="B251" t="s">
         <v>443</v>
-      </c>
-      <c r="B251" t="s">
-        <v>444</v>
       </c>
       <c r="C251">
         <v>5.1731927720548869</v>
@@ -13173,22 +12141,18 @@
         <v>3.3063990643147241</v>
       </c>
       <c r="K251" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L251">
-        <v>1.86</v>
-      </c>
-      <c r="M251">
-        <f t="shared" si="3"/>
-        <v>2.892798128629448</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B252" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C252">
         <v>4.1543674700644413</v>
@@ -13215,22 +12179,18 @@
         <v>2.2567112480932332</v>
       </c>
       <c r="K252" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L252">
-        <v>1.86</v>
-      </c>
-      <c r="M252">
-        <f t="shared" si="3"/>
-        <v>0.79342249618646621</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>445</v>
+      </c>
+      <c r="B253" t="s">
         <v>446</v>
-      </c>
-      <c r="B253" t="s">
-        <v>447</v>
       </c>
       <c r="C253">
         <v>4.574548193183591</v>
@@ -13257,22 +12217,18 @@
         <v>4.3379882492690198</v>
       </c>
       <c r="K253" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L253">
-        <v>1.86</v>
-      </c>
-      <c r="M253">
-        <f t="shared" si="3"/>
-        <v>4.955976498538039</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>447</v>
+      </c>
+      <c r="B254" t="s">
         <v>448</v>
-      </c>
-      <c r="B254" t="s">
-        <v>449</v>
       </c>
       <c r="C254">
         <v>4.1195965409928803</v>
@@ -13299,22 +12255,18 @@
         <v>3.3151860687983681</v>
       </c>
       <c r="K254" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L254">
-        <v>1.86</v>
-      </c>
-      <c r="M254">
-        <f t="shared" si="3"/>
-        <v>2.910372137596736</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B255" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C255">
         <v>3.5466867471944332</v>
@@ -13341,22 +12293,18 @@
         <v>2.304625205653152</v>
       </c>
       <c r="K255" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L255">
-        <v>1.86</v>
-      </c>
-      <c r="M255">
-        <f t="shared" si="3"/>
-        <v>0.88925041130630378</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B256" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C256">
         <v>3.2349397593075708</v>
@@ -13383,22 +12331,18 @@
         <v>2.922494642734359</v>
       </c>
       <c r="K256" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L256">
-        <v>1.86</v>
-      </c>
-      <c r="M256">
-        <f t="shared" si="3"/>
-        <v>2.1249892854687178</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>451</v>
+      </c>
+      <c r="B257" t="s">
         <v>452</v>
-      </c>
-      <c r="B257" t="s">
-        <v>453</v>
       </c>
       <c r="C257">
         <v>5.4574927949631409</v>
@@ -13425,22 +12369,18 @@
         <v>4.1315675135525014</v>
       </c>
       <c r="K257" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L257">
-        <v>1.86</v>
-      </c>
-      <c r="M257">
-        <f t="shared" si="3"/>
-        <v>4.5431350271050022</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B258" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C258">
         <v>5.5288184437039476</v>
@@ -13467,22 +12407,18 @@
         <v>4.4767916541124109</v>
       </c>
       <c r="K258" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L258">
-        <v>1.86</v>
-      </c>
-      <c r="M258">
-        <f t="shared" si="3"/>
-        <v>5.2335833082248211</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>454</v>
+      </c>
+      <c r="B259" t="s">
         <v>455</v>
-      </c>
-      <c r="B259" t="s">
-        <v>456</v>
       </c>
       <c r="C259">
         <v>5.3883285296575991</v>
@@ -13509,22 +12445,18 @@
         <v>4.9791329009376319</v>
       </c>
       <c r="K259" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L259">
-        <v>2.21</v>
-      </c>
-      <c r="M259">
-        <f t="shared" ref="M259:M313" si="4">(J259-L259)*2</f>
-        <v>5.538265801875264</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B260" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C260">
         <v>2.4391056136696498</v>
@@ -13551,22 +12483,18 @@
         <v>2.1917870642038761</v>
       </c>
       <c r="K260" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L260">
-        <v>0.89</v>
-      </c>
-      <c r="M260">
-        <f t="shared" si="4"/>
-        <v>2.603574128407752</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B261" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C261">
         <v>2.2207421503998201</v>
@@ -13593,22 +12521,18 @@
         <v>1.4502708894663521</v>
       </c>
       <c r="K261" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L261">
-        <v>-0.02</v>
-      </c>
-      <c r="M261">
-        <f t="shared" si="4"/>
-        <v>2.9405417789327042</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B262" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C262">
         <v>1.5028544241744071</v>
@@ -13635,22 +12559,18 @@
         <v>0.61550064173288166</v>
       </c>
       <c r="K262" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L262">
-        <v>1.41</v>
-      </c>
-      <c r="M262">
-        <f t="shared" si="4"/>
-        <v>-1.5889987165342365</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>459</v>
+      </c>
+      <c r="B263" t="s">
         <v>460</v>
-      </c>
-      <c r="B263" t="s">
-        <v>461</v>
       </c>
       <c r="C263">
         <v>4.4683734942529698</v>
@@ -13677,22 +12597,18 @@
         <v>4.2123845228153458</v>
       </c>
       <c r="K263" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L263">
-        <v>-0.53</v>
-      </c>
-      <c r="M263">
-        <f t="shared" si="4"/>
-        <v>9.4847690456306921</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>461</v>
+      </c>
+      <c r="B264" t="s">
         <v>462</v>
-      </c>
-      <c r="B264" t="s">
-        <v>463</v>
       </c>
       <c r="C264">
         <v>5.0896084337250258</v>
@@ -13719,22 +12635,18 @@
         <v>3.4687006046009259</v>
       </c>
       <c r="K264" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L264">
-        <v>0.43</v>
-      </c>
-      <c r="M264">
-        <f t="shared" si="4"/>
-        <v>6.0774012092018515</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B265" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C265">
         <v>3.9533777353048469</v>
@@ -13761,22 +12673,18 @@
         <v>2.9252581723021271</v>
       </c>
       <c r="K265" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L265">
-        <v>2.66</v>
-      </c>
-      <c r="M265">
-        <f t="shared" si="4"/>
-        <v>0.53051634460425401</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B266" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C266">
         <v>4.2516650808002021</v>
@@ -13803,22 +12711,18 @@
         <v>3.195676946045412</v>
       </c>
       <c r="K266" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L266">
-        <v>-1.22</v>
-      </c>
-      <c r="M266">
-        <f t="shared" si="4"/>
-        <v>8.8313538920908243</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B267" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C267">
         <v>3.5266412939479812</v>
@@ -13845,22 +12749,18 @@
         <v>3.2436696392554869</v>
       </c>
       <c r="K267" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L267">
-        <v>-2.57</v>
-      </c>
-      <c r="M267">
-        <f t="shared" si="4"/>
-        <v>11.627339278510973</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B268" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C268">
         <v>4.093244529390307</v>
@@ -13887,22 +12787,18 @@
         <v>2.6860934840748749</v>
       </c>
       <c r="K268" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L268">
-        <v>2.17</v>
-      </c>
-      <c r="M268">
-        <f t="shared" si="4"/>
-        <v>1.03218696814975</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B269" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C269">
         <v>4.1503330159310918</v>
@@ -13929,22 +12825,18 @@
         <v>2.7914924599438451</v>
       </c>
       <c r="K269" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L269">
-        <v>0.84</v>
-      </c>
-      <c r="M269">
-        <f t="shared" si="4"/>
-        <v>3.9029849198876905</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B270" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C270">
         <v>2.7773548998961881</v>
@@ -13971,22 +12863,18 @@
         <v>1.537589935028534</v>
       </c>
       <c r="K270" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L270">
-        <v>0.84</v>
-      </c>
-      <c r="M270">
-        <f t="shared" si="4"/>
-        <v>1.3951798700570681</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B271" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C271">
         <v>2.514747859061194</v>
@@ -14013,22 +12901,18 @@
         <v>1.0088228532374059</v>
       </c>
       <c r="K271" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L271">
-        <v>0.69</v>
-      </c>
-      <c r="M271">
-        <f t="shared" si="4"/>
-        <v>0.637645706474812</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>470</v>
+      </c>
+      <c r="B272" t="s">
         <v>471</v>
-      </c>
-      <c r="B272" t="s">
-        <v>472</v>
       </c>
       <c r="C272">
         <v>3.8765060242866749</v>
@@ -14055,22 +12939,18 @@
         <v>1.0389458707311501</v>
       </c>
       <c r="K272" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L272">
-        <v>0.69</v>
-      </c>
-      <c r="M272">
-        <f t="shared" si="4"/>
-        <v>0.69789174146230026</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B273" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C273">
         <v>4.2605421689950624</v>
@@ -14097,22 +12977,18 @@
         <v>0.88668815140705703</v>
       </c>
       <c r="K273" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L273">
-        <v>0.69</v>
-      </c>
-      <c r="M273">
-        <f t="shared" si="4"/>
-        <v>0.39337630281411418</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>473</v>
+      </c>
+      <c r="B274" t="s">
         <v>474</v>
-      </c>
-      <c r="B274" t="s">
-        <v>475</v>
       </c>
       <c r="C274">
         <v>3.530922930781963</v>
@@ -14139,22 +13015,18 @@
         <v>2.9114040503117602</v>
       </c>
       <c r="K274" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L274">
-        <v>0.05</v>
-      </c>
-      <c r="M274">
-        <f t="shared" si="4"/>
-        <v>5.7228081006235207</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>475</v>
+      </c>
+      <c r="B275" t="s">
         <v>476</v>
-      </c>
-      <c r="B275" t="s">
-        <v>477</v>
       </c>
       <c r="C275">
         <v>4.1521084337627743</v>
@@ -14181,22 +13053,18 @@
         <v>3.7458507489037358</v>
       </c>
       <c r="K275" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L275">
-        <v>1.66</v>
-      </c>
-      <c r="M275">
-        <f t="shared" si="4"/>
-        <v>4.1717014978074722</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B276" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C276">
         <v>2.6788772595830652</v>
@@ -14223,22 +13091,18 @@
         <v>2.2077827202615379</v>
       </c>
       <c r="K276" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L276">
-        <v>2.06</v>
-      </c>
-      <c r="M276">
-        <f t="shared" si="4"/>
-        <v>0.29556544052307565</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>478</v>
+      </c>
+      <c r="B277" t="s">
         <v>479</v>
-      </c>
-      <c r="B277" t="s">
-        <v>480</v>
       </c>
       <c r="C277">
         <v>3.5511527379689038</v>
@@ -14265,22 +13129,18 @@
         <v>2.852774330007573</v>
       </c>
       <c r="K277" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L277">
-        <v>2.06</v>
-      </c>
-      <c r="M277">
-        <f t="shared" si="4"/>
-        <v>1.5855486600151458</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B278" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C278">
         <v>5.0122478385033888</v>
@@ -14307,22 +13167,18 @@
         <v>3.112576845447689</v>
       </c>
       <c r="K278" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L278">
-        <v>1.74</v>
-      </c>
-      <c r="M278">
-        <f t="shared" si="4"/>
-        <v>2.745153690895378</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B279" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C279">
         <v>4.3487031701064227</v>
@@ -14349,22 +13205,18 @@
         <v>3.094494585284421</v>
       </c>
       <c r="K279" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L279">
-        <v>1.74</v>
-      </c>
-      <c r="M279">
-        <f t="shared" si="4"/>
-        <v>2.708989170568842</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B280" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C280">
         <v>-7.7809798260701543E-2</v>
@@ -14391,22 +13243,18 @@
         <v>0.1114703873187381</v>
       </c>
       <c r="K280" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L280">
-        <v>0.64</v>
-      </c>
-      <c r="M280">
-        <f t="shared" si="4"/>
-        <v>-1.0570592253625239</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B281" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C281">
         <v>4.8976945245244874</v>
@@ -14433,22 +13281,18 @@
         <v>3.7530768640208829</v>
       </c>
       <c r="K281" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L281">
-        <v>-0.89</v>
-      </c>
-      <c r="M281">
-        <f t="shared" si="4"/>
-        <v>9.2861537280417661</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B282" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C282">
         <v>4.3227665700389748</v>
@@ -14475,22 +13319,18 @@
         <v>3.389715898536124</v>
       </c>
       <c r="K282" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L282">
-        <v>1.74</v>
-      </c>
-      <c r="M282">
-        <f t="shared" si="4"/>
-        <v>3.299431797072248</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B283" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C283">
         <v>2.584681256103925</v>
@@ -14517,22 +13357,18 @@
         <v>2.1124100173277989</v>
       </c>
       <c r="K283" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L283">
-        <v>-0.74</v>
-      </c>
-      <c r="M283">
-        <f t="shared" si="4"/>
-        <v>5.7048200346555973</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B284" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C284">
         <v>2.213606089773013</v>
@@ -14559,22 +13395,18 @@
         <v>1.9779686342970271</v>
       </c>
       <c r="K284" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L284">
-        <v>0.11</v>
-      </c>
-      <c r="M284">
-        <f t="shared" si="4"/>
-        <v>3.735937268594054</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>487</v>
+      </c>
+      <c r="B285" t="s">
         <v>488</v>
-      </c>
-      <c r="B285" t="s">
-        <v>489</v>
       </c>
       <c r="C285">
         <v>2.0576368870611739</v>
@@ -14601,22 +13433,18 @@
         <v>1.36732804918907</v>
       </c>
       <c r="K285" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L285">
-        <v>0.18</v>
-      </c>
-      <c r="M285">
-        <f t="shared" si="4"/>
-        <v>2.3746560983781402</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>489</v>
+      </c>
+      <c r="B286" t="s">
         <v>490</v>
-      </c>
-      <c r="B286" t="s">
-        <v>491</v>
       </c>
       <c r="C286">
         <v>5.204610950373155</v>
@@ -14643,22 +13471,18 @@
         <v>3.6691618404342208</v>
       </c>
       <c r="K286" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L286">
-        <v>0.12</v>
-      </c>
-      <c r="M286">
-        <f t="shared" si="4"/>
-        <v>7.0983236808684413</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>491</v>
+      </c>
+      <c r="B287" t="s">
         <v>492</v>
-      </c>
-      <c r="B287" t="s">
-        <v>493</v>
       </c>
       <c r="C287">
         <v>1.6926736441738439</v>
@@ -14685,22 +13509,18 @@
         <v>1.1177576502177731</v>
       </c>
       <c r="K287" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L287">
-        <v>0.12</v>
-      </c>
-      <c r="M287">
-        <f t="shared" si="4"/>
-        <v>1.9955153004355461</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>493</v>
+      </c>
+      <c r="B288" t="s">
         <v>494</v>
-      </c>
-      <c r="B288" t="s">
-        <v>495</v>
       </c>
       <c r="C288">
         <v>1.8468125595129199</v>
@@ -14727,19 +13547,18 @@
         <v>0.51226467191426872</v>
       </c>
       <c r="K288" t="s">
-        <v>733</v>
-      </c>
-      <c r="M288">
-        <f t="shared" si="4"/>
-        <v>1.0245293438285374</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+      <c r="L288">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>495</v>
+      </c>
+      <c r="B289" t="s">
         <v>496</v>
-      </c>
-      <c r="B289" t="s">
-        <v>497</v>
       </c>
       <c r="C289">
         <v>3.4424357756516359</v>
@@ -14766,19 +13585,18 @@
         <v>2.7200516867581199</v>
       </c>
       <c r="K289" t="s">
-        <v>734</v>
-      </c>
-      <c r="M289">
-        <f t="shared" si="4"/>
-        <v>5.4401033735162398</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="L289">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>497</v>
+      </c>
+      <c r="B290" t="s">
         <v>498</v>
-      </c>
-      <c r="B290" t="s">
-        <v>499</v>
       </c>
       <c r="C290">
         <v>3.092939480897559</v>
@@ -14805,19 +13623,18 @@
         <v>2.0655457931015042</v>
       </c>
       <c r="K290" t="s">
-        <v>735</v>
-      </c>
-      <c r="M290">
-        <f t="shared" si="4"/>
-        <v>4.1310915862030084</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+      <c r="L290">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>499</v>
+      </c>
+      <c r="B291" t="s">
         <v>500</v>
-      </c>
-      <c r="B291" t="s">
-        <v>501</v>
       </c>
       <c r="C291">
         <v>3.1969552806262449</v>
@@ -14844,19 +13661,18 @@
         <v>2.706755852522198</v>
       </c>
       <c r="K291" t="s">
-        <v>736</v>
-      </c>
-      <c r="M291">
-        <f t="shared" si="4"/>
-        <v>5.4135117050443959</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="L291">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>501</v>
+      </c>
+      <c r="B292" t="s">
         <v>502</v>
-      </c>
-      <c r="B292" t="s">
-        <v>503</v>
       </c>
       <c r="C292">
         <v>4.4157060519767004</v>
@@ -14883,19 +13699,18 @@
         <v>2.202807272662187</v>
       </c>
       <c r="K292" t="s">
-        <v>737</v>
-      </c>
-      <c r="M292">
-        <f t="shared" si="4"/>
-        <v>4.405614545324374</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+      <c r="L292">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>503</v>
+      </c>
+      <c r="B293" t="s">
         <v>504</v>
-      </c>
-      <c r="B293" t="s">
-        <v>505</v>
       </c>
       <c r="C293">
         <v>2.9400570881400649</v>
@@ -14922,19 +13737,18 @@
         <v>-0.79462077983864576</v>
       </c>
       <c r="K293" t="s">
-        <v>738</v>
-      </c>
-      <c r="M293">
-        <f t="shared" si="4"/>
-        <v>-1.5892415596772915</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="L293">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>505</v>
+      </c>
+      <c r="B294" t="s">
         <v>506</v>
-      </c>
-      <c r="B294" t="s">
-        <v>507</v>
       </c>
       <c r="C294">
         <v>3.99423631099339</v>
@@ -14961,19 +13775,18 @@
         <v>3.2259600421354482</v>
       </c>
       <c r="K294" t="s">
-        <v>739</v>
-      </c>
-      <c r="M294">
-        <f t="shared" si="4"/>
-        <v>6.4519200842708964</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+      <c r="L294">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>507</v>
+      </c>
+      <c r="B295" t="s">
         <v>508</v>
-      </c>
-      <c r="B295" t="s">
-        <v>509</v>
       </c>
       <c r="C295">
         <v>1.869647954434499</v>
@@ -15000,19 +13813,18 @@
         <v>1.5335616742996541</v>
       </c>
       <c r="K295" t="s">
-        <v>740</v>
-      </c>
-      <c r="M295">
-        <f t="shared" si="4"/>
-        <v>3.0671233485993081</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="L295">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B296" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C296">
         <v>1.157469077321061</v>
@@ -15039,19 +13851,18 @@
         <v>0.79538949888623622</v>
       </c>
       <c r="K296" t="s">
-        <v>740</v>
-      </c>
-      <c r="M296">
-        <f t="shared" si="4"/>
-        <v>1.5907789977724724</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="L296">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>510</v>
+      </c>
+      <c r="B297" t="s">
         <v>511</v>
-      </c>
-      <c r="B297" t="s">
-        <v>512</v>
       </c>
       <c r="C297">
         <v>3.873198846708692</v>
@@ -15078,19 +13889,18 @@
         <v>2.0552724015204822</v>
       </c>
       <c r="K297" t="s">
-        <v>741</v>
-      </c>
-      <c r="M297">
-        <f t="shared" si="4"/>
-        <v>4.1105448030409644</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+      <c r="L297">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B298" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C298">
         <v>2.801204819586375</v>
@@ -15117,19 +13927,18 @@
         <v>2.4990867265821359</v>
       </c>
       <c r="K298" t="s">
-        <v>741</v>
-      </c>
-      <c r="M298">
-        <f t="shared" si="4"/>
-        <v>4.9981734531642719</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+      <c r="L298">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B299" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C299">
         <v>4.093244529390307</v>
@@ -15156,19 +13965,18 @@
         <v>2.7432649993713589</v>
       </c>
       <c r="K299" t="s">
-        <v>741</v>
-      </c>
-      <c r="M299">
-        <f t="shared" si="4"/>
-        <v>5.4865299987427179</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+      <c r="L299">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>514</v>
+      </c>
+      <c r="B300" t="s">
         <v>515</v>
-      </c>
-      <c r="B300" t="s">
-        <v>516</v>
       </c>
       <c r="C300">
         <v>3.905873493792436</v>
@@ -15195,19 +14003,18 @@
         <v>2.1597241741927218</v>
       </c>
       <c r="K300" t="s">
-        <v>742</v>
-      </c>
-      <c r="M300">
-        <f t="shared" si="4"/>
-        <v>4.3194483483854436</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+      <c r="L300">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>516</v>
+      </c>
+      <c r="B301" t="s">
         <v>517</v>
-      </c>
-      <c r="B301" t="s">
-        <v>518</v>
       </c>
       <c r="C301">
         <v>3.5641210374247581</v>
@@ -15234,19 +14041,18 @@
         <v>2.4569168303990319</v>
       </c>
       <c r="K301" t="s">
-        <v>743</v>
-      </c>
-      <c r="M301">
-        <f t="shared" si="4"/>
-        <v>4.9138336607980637</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+      <c r="L301">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>518</v>
+      </c>
+      <c r="B302" t="s">
         <v>519</v>
-      </c>
-      <c r="B302" t="s">
-        <v>520</v>
       </c>
       <c r="C302">
         <v>3.8742469879850079</v>
@@ -15273,19 +14079,18 @@
         <v>3.6563652561159738</v>
       </c>
       <c r="K302" t="s">
-        <v>744</v>
-      </c>
-      <c r="M302">
-        <f t="shared" si="4"/>
-        <v>7.3127305122319477</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="L302">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B303" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C303">
         <v>3.978162650613962</v>
@@ -15312,19 +14117,18 @@
         <v>3.4431201491835242</v>
       </c>
       <c r="K303" t="s">
-        <v>744</v>
-      </c>
-      <c r="M303">
-        <f t="shared" si="4"/>
-        <v>6.8862402983670483</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="L303">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>521</v>
+      </c>
+      <c r="B304" t="s">
         <v>522</v>
-      </c>
-      <c r="B304" t="s">
-        <v>523</v>
       </c>
       <c r="C304">
         <v>4.385446685038719</v>
@@ -15351,19 +14155,18 @@
         <v>3.1881858530195131</v>
       </c>
       <c r="K304" t="s">
-        <v>745</v>
-      </c>
-      <c r="M304">
-        <f t="shared" si="4"/>
-        <v>6.3763717060390261</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="L304">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B305" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C305">
         <v>4.5778097980642256</v>
@@ -15390,19 +14193,18 @@
         <v>2.9200864160983468</v>
       </c>
       <c r="K305" t="s">
-        <v>745</v>
-      </c>
-      <c r="M305">
-        <f t="shared" si="4"/>
-        <v>5.8401728321966937</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="L305">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>524</v>
+      </c>
+      <c r="B306" t="s">
         <v>525</v>
-      </c>
-      <c r="B306" t="s">
-        <v>526</v>
       </c>
       <c r="C306">
         <v>4.868222891865071</v>
@@ -15429,19 +14231,18 @@
         <v>3.7906692368102322</v>
       </c>
       <c r="K306" t="s">
-        <v>746</v>
-      </c>
-      <c r="M306">
-        <f t="shared" si="4"/>
-        <v>7.5813384736204643</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="L306">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>526</v>
+      </c>
+      <c r="B307" t="s">
         <v>527</v>
-      </c>
-      <c r="B307" t="s">
-        <v>528</v>
       </c>
       <c r="C307">
         <v>0.94481446240004485</v>
@@ -15468,19 +14269,18 @@
         <v>0.71616848596234439</v>
       </c>
       <c r="K307" t="s">
-        <v>747</v>
-      </c>
-      <c r="M307">
-        <f t="shared" si="4"/>
-        <v>1.4323369719246888</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="L307">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>528</v>
+      </c>
+      <c r="B308" t="s">
         <v>529</v>
-      </c>
-      <c r="B308" t="s">
-        <v>530</v>
       </c>
       <c r="C308">
         <v>5.048049476973147</v>
@@ -15507,19 +14307,18 @@
         <v>2.5467348758310462</v>
       </c>
       <c r="K308" t="s">
-        <v>748</v>
-      </c>
-      <c r="M308">
-        <f t="shared" si="4"/>
-        <v>5.0934697516620924</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="L308">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>530</v>
+      </c>
+      <c r="B309" t="s">
         <v>531</v>
-      </c>
-      <c r="B309" t="s">
-        <v>532</v>
       </c>
       <c r="C309">
         <v>1.4771646054600021</v>
@@ -15546,19 +14345,18 @@
         <v>0.96014733068632552</v>
       </c>
       <c r="K309" t="s">
-        <v>749</v>
-      </c>
-      <c r="M309">
-        <f t="shared" si="4"/>
-        <v>1.920294661372651</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+      <c r="L309">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>532</v>
+      </c>
+      <c r="B310" t="s">
         <v>533</v>
-      </c>
-      <c r="B310" t="s">
-        <v>534</v>
       </c>
       <c r="C310">
         <v>0.76129518075336344</v>
@@ -15585,19 +14383,18 @@
         <v>-0.45954590970530679</v>
       </c>
       <c r="K310" t="s">
-        <v>750</v>
-      </c>
-      <c r="M310">
-        <f t="shared" si="4"/>
-        <v>-0.91909181941061358</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+      <c r="L310">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>534</v>
+      </c>
+      <c r="B311" t="s">
         <v>535</v>
-      </c>
-      <c r="B311" t="s">
-        <v>536</v>
       </c>
       <c r="C311">
         <v>0.80403458209659362</v>
@@ -15624,19 +14421,18 @@
         <v>-0.55158016416131916</v>
       </c>
       <c r="K311" t="s">
-        <v>751</v>
-      </c>
-      <c r="M311">
-        <f t="shared" si="4"/>
-        <v>-1.1031603283226383</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+      <c r="L311">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>536</v>
+      </c>
+      <c r="B312" t="s">
         <v>537</v>
-      </c>
-      <c r="B312" t="s">
-        <v>538</v>
       </c>
       <c r="C312">
         <v>0.23775216135214361</v>
@@ -15663,19 +14459,18 @@
         <v>-0.2503748822489073</v>
       </c>
       <c r="K312" t="s">
-        <v>752</v>
-      </c>
-      <c r="M312">
-        <f t="shared" si="4"/>
-        <v>-0.50074976449781461</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+      <c r="L312">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B313" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C313">
         <v>0.23945783130692719</v>
@@ -15702,11 +14497,10 @@
         <v>-0.2963091432567348</v>
       </c>
       <c r="K313" t="s">
-        <v>752</v>
-      </c>
-      <c r="M313">
-        <f t="shared" si="4"/>
-        <v>-0.59261828651346959</v>
+        <v>750</v>
+      </c>
+      <c r="L313">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
